--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="8120" windowWidth="37540" windowHeight="17820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="9100" windowWidth="47820" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -172,13 +172,181 @@
   </si>
   <si>
     <t>PART_name</t>
+  </si>
+  <si>
+    <t>bioDomeBaseLarge</t>
+  </si>
+  <si>
+    <t>BioDome Base (large)</t>
+  </si>
+  <si>
+    <r>
+      <t>Netherdyne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t xml:space="preserve"> custom home modeling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design a custom BioDome with the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>biosphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t xml:space="preserve"> base.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5, 1.0, 1.5</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>bioSphereBase</t>
+  </si>
+  <si>
+    <t>0.0, -2, 0.0, 0.0, -1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>Biosphere Base</t>
+  </si>
+  <si>
+    <t>Design a custom biosphere or biodome with the biosphere base.</t>
+  </si>
+  <si>
+    <t>bioSphereBaseNoWalls</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.0, 0.5, 0.0, 0.0, 1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>Biosphere Base (Bare)</t>
+  </si>
+  <si>
+    <t>A huge, solid disc to use as a base for building biodomes. Feel free to attach a dome to either side, to create a sphere.</t>
+  </si>
+  <si>
+    <t>bioSphereBaseWallRing</t>
+  </si>
+  <si>
+    <t>Cosmic Farmer</t>
+  </si>
+  <si>
+    <t>0.0, 1.3, 0.0, 0.0, 1.0, 0.0, 5
+0.0, 0.0, 0.0, 0.0, 1.0, 0.0, 5
+0.0, -1.2, 0.0, 0.0, 1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>0.0, 1.3, 0.0, 0.0, -1.0, 0.0, 5
+0.0, 0.0, 0.0, 0.0, -1.0, 0.0, 5
+0.0, -1.2, 0.0, 0.0, -1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>Biosphere Wall Ring</t>
+  </si>
+  <si>
+    <t>One enormous metal ring to rule them all! Designed for the construction of biodomes, this part can be attached to a biodome base to provide walls, or even between two domes to create a biosphere.</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>parkbioDomeBase</t>
+  </si>
+  <si>
+    <t>0.0, 2, 0.0, 0.0, 1.0, 0.0, 5
+0.0, 0.5, 0.0, 0.0, 1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>Park BioDome base</t>
+  </si>
+  <si>
+    <t>Design a custom BioDome with the biosphere base.  This base has grass and concrete paths for building a park.</t>
+  </si>
+  <si>
+    <t>parkbioDomeBaseRock</t>
+  </si>
+  <si>
+    <t>Rock BioDome base</t>
+  </si>
+  <si>
+    <t>Design a custom BioDome with the biosphere base.  This base has rock and dirt inside</t>
+  </si>
+  <si>
+    <t>parkbioDomeBaseMetal</t>
+  </si>
+  <si>
+    <t>Grey Rock BioDome base</t>
+  </si>
+  <si>
+    <t>Design a custom BioDome with the biosphere base.  This base has a metal surface.</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRevamp/Assets/biosphereBaseSolid</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRevamp/Assets/biosphereBaseSolidNoWalls</t>
+  </si>
+  <si>
+    <t>0.896, 1.0, 0.896</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRevamp/Assets/BiosphereRing</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRevamp/Assets/parkBiodomeBase</t>
+  </si>
+  <si>
+    <t>parkBiodomeDiffuse , CivilianPopulationRevamp/Assets/sci_fi_metal</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>0.0, 2, 0.0, 0.0, 1.0, 0.0, 10
+0.0, 0.5, 0.0, 0.0, 1.0, 0.0, 10</t>
+  </si>
+  <si>
+    <t>0.0, -0.5, 0.0, 0.0, -1.0, 0.0, 10</t>
+  </si>
+  <si>
+    <t>parkBiodomeDiffuse , CivilianPopulationRevamp/Assets/rockdiffuse</t>
+  </si>
+  <si>
+    <t>0.0, 2, 0.0, 0.0, 1.0, 0.0
+0.0, 0.5, 0.0, 0.0, 1.0, 0.0</t>
+  </si>
+  <si>
+    <t>0.0, -0.5, 0.0, 0.0, -1.0, 0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +357,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Monaco"/>
     </font>
   </fonts>
@@ -209,14 +404,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,217 +711,954 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="163.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>10400</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>180000</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="3">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P3" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U2">
+      <c r="T3" s="3">
+        <v>12</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P4" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3">
+        <v>8</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P5" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="3">
+        <v>4</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P6" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P7" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="3">
         <v>7</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y2">
+      <c r="X7" s="3">
         <v>2</v>
       </c>
-      <c r="Z2">
-        <v>24</v>
-      </c>
-      <c r="AA2">
+      <c r="Y7" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="3">
         <v>2000</v>
       </c>
-      <c r="AB2">
+      <c r="AA7" s="3">
         <v>2000</v>
       </c>
-      <c r="AC2">
+      <c r="AB7" s="3">
         <v>2900</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P8" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="3">
+        <v>7</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="P9" s="3">
+        <v>180000</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -711,30 +1667,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1880" windowWidth="49640" windowHeight="25040" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="1880" windowWidth="49640" windowHeight="25040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
     <sheet name="MODEL" sheetId="2" r:id="rId2"/>
-    <sheet name="RESOURCE" sheetId="5" r:id="rId3"/>
+    <sheet name="INTERNAL" sheetId="8" r:id="rId3"/>
+    <sheet name="RESOURCE" sheetId="5" r:id="rId4"/>
+    <sheet name="MODULE" sheetId="6" r:id="rId5"/>
+    <sheet name="CONVERSION" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="204">
   <si>
     <t>name</t>
   </si>
@@ -498,12 +501,198 @@
   <si>
     <t>wasteWaterContainer , CivilianPopulation/Models/Utility/biomassTank</t>
   </si>
+  <si>
+    <t>CivPopReactor</t>
+  </si>
+  <si>
+    <t>EnrichedUranium</t>
+  </si>
+  <si>
+    <t>DepletedUranium</t>
+  </si>
+  <si>
+    <t>XenonGas</t>
+  </si>
+  <si>
+    <t>isTweakable</t>
+  </si>
+  <si>
+    <t>rabidninjawombat</t>
+  </si>
+  <si>
+    <t>0.0, 3.35, 0.0, 0.0, 1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -3.35, 0.0, 0.0, -1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>Netherdyne Reactor Unit DX-110</t>
+  </si>
+  <si>
+    <t>Netherdye</t>
+  </si>
+  <si>
+    <t>The DX-110 is a massive reactor that should provide all the power needed for a interplanetary generation ship.</t>
+  </si>
+  <si>
+    <t>1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>ModuleResourceConverter</t>
+  </si>
+  <si>
+    <t>ConverterName</t>
+  </si>
+  <si>
+    <t>Reactor</t>
+  </si>
+  <si>
+    <t>StartActionName</t>
+  </si>
+  <si>
+    <t>Start Reactor</t>
+  </si>
+  <si>
+    <t>StopActionName</t>
+  </si>
+  <si>
+    <t>Stop Reactor</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>ResourceName</t>
+  </si>
+  <si>
+    <t>0.0000125</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>0.0000085</t>
+  </si>
+  <si>
+    <t>DumpExcess</t>
+  </si>
+  <si>
+    <t>0.000050</t>
+  </si>
+  <si>
+    <t>ModuleAnimationGroup</t>
+  </si>
+  <si>
+    <t>activeAnimationName</t>
+  </si>
+  <si>
+    <t>reactorOnline</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>autoDeploy</t>
+  </si>
+  <si>
+    <t>deployAnimationName</t>
+  </si>
+  <si>
+    <t>moduleType</t>
+  </si>
+  <si>
+    <t>SmallCivPopReactor</t>
+  </si>
+  <si>
+    <t>0.0, -2.2, 0.0, 0.0, -1.0, 0.0, 1</t>
+  </si>
+  <si>
+    <t>0.0, 2.55, 0.0, 0.0, 1.0, 0.0, 1</t>
+  </si>
+  <si>
+    <t>Netherdyne Reactor Unit MX-99</t>
+  </si>
+  <si>
+    <t>The MX-99 is a smaller version of the its bigger brother the DX-110.  Ment for smaller Civilian ships. </t>
+  </si>
+  <si>
+    <t>reactorOnlineSml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Electrical/reactor</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Electrical/SmallReactor</t>
+  </si>
+  <si>
+    <t>civieDock</t>
+  </si>
+  <si>
+    <t>0.0, 1, 0.0, 0.0, 1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -1, 0.0, 0.0, -1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -1, 0, 0.0, -1, 0, 2</t>
+  </si>
+  <si>
+    <t>Civilian Contractor Dock Mk1</t>
+  </si>
+  <si>
+    <t>Nagoya-Goliath Kolonization Division</t>
+  </si>
+  <si>
+    <t>For stations in orbit around Kerbin and her moons it is feasible to sub-contract civilian transport to facilities.  This module allows new civilians to arrive on the base.</t>
+  </si>
+  <si>
+    <t>CivilianDockGrowth</t>
+  </si>
+  <si>
+    <t>populationGrowthModifier</t>
+  </si>
+  <si>
+    <t>0.000000545</t>
+  </si>
+  <si>
+    <t>KerbalRecruitment</t>
+  </si>
+  <si>
+    <t>CivilianGrowthCounter</t>
+  </si>
+  <si>
+    <t>crewCabinInternals</t>
+  </si>
+  <si>
+    <t>vesselType</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/civiedock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -538,6 +727,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF2600"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -563,7 +757,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -571,6 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -854,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE54"/>
+  <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,36 +1062,38 @@
     <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="163.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="163.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,85 +1110,91 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1007,71 +1210,71 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>10400</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>180000</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AA2" s="1">
         <v>2</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AB2" s="1">
         <v>24</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AC2" s="1">
         <v>2000</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AD2" s="1">
         <v>2000</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AE2" s="1">
         <v>2900</v>
       </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1087,71 +1290,71 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>10400</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>180000</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>12</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>24</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="1">
         <v>2000</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AD3" s="1">
         <v>2000</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AE3" s="1">
         <v>2900</v>
       </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1167,65 +1370,65 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>10400</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>180000</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>8</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>2</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>24</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>2000</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>2000</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AE4" s="1">
         <v>2900</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1241,71 +1444,71 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>10400</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>180000</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>4</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>32</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>2000</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>2000</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>2900</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -1321,71 +1524,71 @@
       <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>10400</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>180000</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>3</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>24</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>20000</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>20000</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>2900</v>
       </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -1401,71 +1604,71 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>10400</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>180000</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>2</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>20</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>2000</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AD7" s="1">
         <v>2000</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AE7" s="1">
         <v>2900</v>
       </c>
-      <c r="AD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -1481,71 +1684,71 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>10400</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>180000</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>7</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>2</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AB8" s="1">
         <v>20</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <v>2000</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <v>2000</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AE8" s="1">
         <v>2900</v>
       </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1561,71 +1764,71 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>10400</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>180000</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>7</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>2</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>20</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>2000</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>2000</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>2900</v>
       </c>
-      <c r="AD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -1641,83 +1844,83 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>10400</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>22000</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>2</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>30</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>600</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AD10" s="1">
         <v>600</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AE10" s="1">
         <v>2900</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -1733,71 +1936,71 @@
       <c r="E11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>10400</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>180000</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>4</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="Y11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>2</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <v>18</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>2000</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AD11" s="1">
         <v>2000</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AE11" s="1">
         <v>2900</v>
       </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
@@ -1813,71 +2016,71 @@
       <c r="E12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>10400</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>320000</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>8</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>2</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <v>20</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>2000</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AD12" s="1">
         <v>2000</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AE12" s="1">
         <v>2900</v>
       </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -1893,71 +2096,71 @@
       <c r="E13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>12000</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>210000</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>6</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>2</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>18</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>2000</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AD13" s="1">
         <v>2000</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AE13" s="1">
         <v>2900</v>
       </c>
-      <c r="AD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -1973,150 +2176,448 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>10400</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>1000</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>2</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>12</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AE14" s="1">
         <v>2900</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R15" s="1">
+        <v>250000</v>
+      </c>
+      <c r="S15" s="1">
+        <v>15000</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" s="1">
+        <v>75000</v>
+      </c>
+      <c r="S16" s="1">
+        <v>8000</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R17" s="1">
+        <v>100</v>
+      </c>
+      <c r="S17" s="1">
+        <v>100</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2125,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2244,7 +2745,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
       <c r="B11" t="s">
@@ -2284,35 +2785,29 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2321,21 +2816,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2348,8 +2879,11 @@
       <c r="D1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2363,7 +2897,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -2377,7 +2911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2391,38 +2925,676 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="3"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8">
+        <v>240000</v>
+      </c>
+      <c r="D8">
+        <v>240000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>100000</v>
+      </c>
+      <c r="D12">
+        <v>100000</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9">
+        <v>1500</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1880" windowWidth="49640" windowHeight="25040" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="1880" windowWidth="51100" windowHeight="25040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="213">
   <si>
     <t>name</t>
   </si>
@@ -686,6 +686,33 @@
   </si>
   <si>
     <t>CivilianPopulation/Models/Utility/civiedock</t>
+  </si>
+  <si>
+    <t>t1civWasteWaterTank</t>
+  </si>
+  <si>
+    <t>0.0,0, -.6,  0.0, 0, 1, 2</t>
+  </si>
+  <si>
+    <t>Small Waste Water Tank</t>
+  </si>
+  <si>
+    <t>Store the used water from your garden here.</t>
+  </si>
+  <si>
+    <t>wasteWaterContainer , CivilianPopulation/Models/Utility/wasteTank</t>
+  </si>
+  <si>
+    <t>t1CivWaterTank</t>
+  </si>
+  <si>
+    <t>Small Sustenance Tank</t>
+  </si>
+  <si>
+    <t>Store the  food and water for your voyage.</t>
+  </si>
+  <si>
+    <t>wasteWaterContainer , CivilianPopulation/Models/Utility/waterTank</t>
   </si>
 </sst>
 </file>
@@ -757,7 +784,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -767,7 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1049,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG82"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2255,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2451,173 +2477,143 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R18" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2626,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2801,12 +2797,34 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>188</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3085,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1880" windowWidth="51100" windowHeight="25040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>stack, srfAttach, allowStack, allowSrfAttach, allowCollision</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="340">
   <si>
     <t>name</t>
   </si>
@@ -713,6 +736,409 @@
   </si>
   <si>
     <t>wasteWaterContainer , CivilianPopulation/Models/Utility/waterTank</t>
+  </si>
+  <si>
+    <t>colossalLandingLeg</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>0, 0, 0.0, 1.0, 0.0, 0.0</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>Cruiser Landing Gear</t>
+  </si>
+  <si>
+    <t>Netherdyne Aerospace</t>
+  </si>
+  <si>
+    <t>0,1,0,1,0</t>
+  </si>
+  <si>
+    <t>For when you need to land a ship that's simply gigantic, no other gear will do.  Also for keeping bases off the ground.</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Ground/colossalLandingLeg</t>
+  </si>
+  <si>
+    <t>ModuleLandingLeg</t>
+  </si>
+  <si>
+    <t>animationName</t>
+  </si>
+  <si>
+    <t>deployGear</t>
+  </si>
+  <si>
+    <t>wheelColliderName</t>
+  </si>
+  <si>
+    <t>WheelCollider</t>
+  </si>
+  <si>
+    <t>suspensionTransformName</t>
+  </si>
+  <si>
+    <t>pistonMesh</t>
+  </si>
+  <si>
+    <t>suspensionUpperLimit</t>
+  </si>
+  <si>
+    <t>impactTolerance</t>
+  </si>
+  <si>
+    <t>suspensionSpring</t>
+  </si>
+  <si>
+    <t>suspensionDamper</t>
+  </si>
+  <si>
+    <t>colossalLandingLeg2</t>
+  </si>
+  <si>
+    <t>Cruiser Landing Gear Mk2</t>
+  </si>
+  <si>
+    <t>Our second generation of colossal landing legs. For landing even more giant ships and, uh, so on. Sorry; the guy who writes the product descriptions is on vacation.</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Ground/colossalLandingLeg2</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Piston</t>
+  </si>
+  <si>
+    <t>orientFootToGround</t>
+  </si>
+  <si>
+    <t>landingFootName</t>
+  </si>
+  <si>
+    <t>FootTransform</t>
+  </si>
+  <si>
+    <t>truss18x18NoCore</t>
+  </si>
+  <si>
+    <t>truss6x18</t>
+  </si>
+  <si>
+    <t>truss6x6Core</t>
+  </si>
+  <si>
+    <t>truss6x6CoreL</t>
+  </si>
+  <si>
+    <t>truss6x6CoreT</t>
+  </si>
+  <si>
+    <t>truss6x6CoreX</t>
+  </si>
+  <si>
+    <t>truss6x6NoCore</t>
+  </si>
+  <si>
+    <t>surfaceAttachHouseSmall</t>
+  </si>
+  <si>
+    <t>6, -9, 0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>-9,6,0,-1,0,0,3</t>
+  </si>
+  <si>
+    <t>-9, 6, 0.0, -1, 0, 0.0</t>
+  </si>
+  <si>
+    <t>Netherdyne 18m Curved Jumbo Truss</t>
+  </si>
+  <si>
+    <t>Our truck broke down while carrying this.  Cop came up and asked "You buildin a bridge?"  Our driver said "Nope.. rocket."   Look on his face was priceless.</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss18x18NoCore</t>
+  </si>
+  <si>
+    <r>
+      <t>Netherdyne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t xml:space="preserve"> Aerospace</t>
+    </r>
+  </si>
+  <si>
+    <t>Hester</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x18</t>
+  </si>
+  <si>
+    <t>0.0, -9, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, 9, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -9, 0.0, 0.0, -1.0, 0.0</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 18x6</t>
+  </si>
+  <si>
+    <t>We shut down at least three major interstates with the convoy that carried this here.</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x6Core</t>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+  </si>
+  <si>
+    <t>0.0, -3, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, 3, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>3,0,0,1,0,0,3</t>
+  </si>
+  <si>
+    <t>-3,0,0,-1,0,0,3</t>
+  </si>
+  <si>
+    <t>0,0,-3,0,0,-1,3</t>
+  </si>
+  <si>
+    <t>0,0,3,0,0,1,3</t>
+  </si>
+  <si>
+    <t>0.0, -3, 0.0, 0.0, -1.0, 0.0</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 6x6 (with core)</t>
+  </si>
+  <si>
+    <t>Tired of customer complaints about having to cut through massive pieces of girdering in order to create passageways, Netherdyne decided to build them right in. This enormous cube-ish girder segment comes complete with a hull section suitable for kerbonauts and civilians to pass through. Please do not loiter in the girder.</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x6CoreL</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 6x6 Bend (with Core)</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x6CoreT</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 6x6 T Junction (with Core)</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x6CoreX</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 6x6 Junction (with Core)</t>
+  </si>
+  <si>
+    <t>Hester, Cosmic Farmer, Rabidninjawombat</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Structural/truss6x6NoCore</t>
+  </si>
+  <si>
+    <t>Netherdyne Jumbo Truss 6x6</t>
+  </si>
+  <si>
+    <t>You know your space ship is huge when a part of it gets hauled into the VAB with Wide Load signs on it. Made from ultra-high tensile alloys, this truss piece is designed to withstand the crushing force of super-heavy structures.</t>
+  </si>
+  <si>
+    <t>InsituKerbalRecruiterTest</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/CiviHousing_Size2_01</t>
+  </si>
+  <si>
+    <t>smallApartmentInternal</t>
+  </si>
+  <si>
+    <t>Hester, Cosmic Farmer</t>
+  </si>
+  <si>
+    <t>0.0, 2, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -2, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -2, 0, 0.0, -1.0, 0, 3</t>
+  </si>
+  <si>
+    <t>Civilian Large House mk2</t>
+  </si>
+  <si>
+    <t>Intended for the house owner on the up, or the station developer on a budget, this cozy habitation pod has long-term living space for up to 8 kerbals.</t>
+  </si>
+  <si>
+    <t>0.000000185</t>
+  </si>
+  <si>
+    <t>CivilianSpawnGrowth</t>
+  </si>
+  <si>
+    <t>ModuleScienceContainer</t>
+  </si>
+  <si>
+    <t>reviewActionName</t>
+  </si>
+  <si>
+    <t>storeActionName</t>
+  </si>
+  <si>
+    <t>collectActionName</t>
+  </si>
+  <si>
+    <t>evaOnlyStorage</t>
+  </si>
+  <si>
+    <t>storageRange</t>
+  </si>
+  <si>
+    <t>allowRepeatedSubjects</t>
+  </si>
+  <si>
+    <t>Take Data</t>
+  </si>
+  <si>
+    <t>Store Experiments</t>
+  </si>
+  <si>
+    <t>Review Data</t>
+  </si>
+  <si>
+    <t>blank_1 , Squad/Parts/Utility/dockingPortSr/model000
+blank_1_NRM , Squad/Parts/Utility/dockingPortSr/model001</t>
+  </si>
+  <si>
+    <t>t1CivilizationGenerationShipQuartersMedium</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/CiviHousing_Size3_01</t>
+  </si>
+  <si>
+    <t>blank_1 , Squad/Parts/Command/mk1LanderCan/ksp_s_landerCan_diff
+blank_1_NRM , Squad/Parts/Command/mk1LanderCan/ksp_s_landerCan_normal</t>
+  </si>
+  <si>
+    <t>mediumQuartersInternal</t>
+  </si>
+  <si>
+    <t>0.0, 3.5, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -3.5, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>advExploration</t>
+  </si>
+  <si>
+    <t>Civilian Small Apartment Complex</t>
+  </si>
+  <si>
+    <t>25 willing victims...err guests travel in style in this retro quarters.</t>
+  </si>
+  <si>
+    <t>Hester, Cosmic Farmer, RabidNinjaWombat</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/CiviHousing_Size4</t>
+  </si>
+  <si>
+    <t>t1CivilizationGenerationShipQuartersLarge</t>
+  </si>
+  <si>
+    <t>0.0, 6.75, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -6.75, 0.0, 0.0, -1.0, 0.0, 4</t>
+  </si>
+  <si>
+    <t>0.0,-6.75, 0,  0.0, -1, 0, 3</t>
+  </si>
+  <si>
+    <t>Civilian Large Apartment Complex</t>
+  </si>
+  <si>
+    <t>Come and stay in our luxurious apartments among the stars.  Whether in orbit or on the surface, our apartments offer 5-star accommodation, with communal lounge, bar and gymnasium. Our extravagant viewing deck provides a panorama you can't get anywhere else. This building houses 60 civilians, and has enough space to accommodate 8 crew members.</t>
+  </si>
+  <si>
+    <t>FlagDecal</t>
+  </si>
+  <si>
+    <t>textureQuadName</t>
+  </si>
+  <si>
+    <t>Flag_1</t>
+  </si>
+  <si>
+    <t>Flag_2</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/surfaceAttachHouseSmall</t>
+  </si>
+  <si>
+    <t>0.0, 0.7, 0.0, 0.0, 1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -0.7, 0.0, 0.0, -1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -0.7, 0, 0.0, -1, 0, 2</t>
+  </si>
+  <si>
+    <t>Civilian Small House</t>
+  </si>
+  <si>
+    <t>Netherdyne KR department</t>
+  </si>
+  <si>
+    <t>Attach this small house to any ship or base.  Also goes great in a biodome.</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Review Stored Data</t>
+  </si>
+  <si>
+    <r>
+      <t>hester</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>,Cosmic_Farmer,RabidNinjaWombat</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -755,9 +1181,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF2600"/>
-      <name val="Monaco"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -784,7 +1211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -792,7 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -1074,16 +1500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -1534,7 +1960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -2612,219 +3038,1440 @@
         <v>211</v>
       </c>
     </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2200</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W20" s="1">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2200</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2500</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W21" s="1">
+        <v>3</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>800</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W22" s="1">
+        <v>18</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W23" s="1">
+        <v>12</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W24" s="1">
+        <v>7</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W25" s="1">
+        <v>9</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="O26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W26" s="1">
+        <v>9</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W27" s="1">
+        <v>9</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="1">
+        <v>7800</v>
+      </c>
+      <c r="S28" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="W28" s="1">
+        <v>4</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P29" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S29" s="1">
+        <v>13500</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29" s="1">
+        <v>2</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="P30" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R30" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S30" s="1">
+        <v>80000</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W30" s="1">
+        <v>5</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P31" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R31" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S31" s="1">
+        <v>160000</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W31" s="1">
+        <v>15</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R32" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S32" s="1">
+        <v>13500</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2834,16 +4481,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,6 +4507,38 @@
       </c>
       <c r="B2" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2869,15 +4548,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -3062,7 +4741,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>188</v>
       </c>
       <c r="B13" t="s">
@@ -3072,6 +4751,62 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
     </row>
@@ -3082,15 +4817,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -3100,9 +4835,25 @@
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -3133,8 +4884,56 @@
       <c r="J1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" t="s">
+        <v>301</v>
+      </c>
+      <c r="X1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -3151,7 +4950,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -3171,8 +4970,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>178</v>
       </c>
       <c r="B4" t="s">
@@ -3188,8 +4987,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>178</v>
       </c>
       <c r="B5" t="s">
@@ -3208,8 +5007,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>188</v>
       </c>
       <c r="B6" t="s">
@@ -3219,136 +5018,241 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>188</v>
       </c>
       <c r="B7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>20000</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L9" t="s">
+        <v>226</v>
+      </c>
+      <c r="M9" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>20000</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>55</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="T11" t="s">
+        <v>306</v>
+      </c>
+      <c r="U11" t="s">
+        <v>305</v>
+      </c>
+      <c r="V11" t="s">
+        <v>304</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="T13" t="s">
+        <v>306</v>
+      </c>
+      <c r="U13" t="s">
+        <v>305</v>
+      </c>
+      <c r="V13" t="s">
+        <v>304</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="T15" t="s">
+        <v>306</v>
+      </c>
+      <c r="U15" t="s">
+        <v>305</v>
+      </c>
+      <c r="V15" t="s">
+        <v>304</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+      <c r="T19" t="s">
+        <v>338</v>
+      </c>
+      <c r="U19" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3546,73 +5450,73 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
   <si>
     <t>name</t>
   </si>
@@ -1140,12 +1140,88 @@
       <t>,Cosmic_Farmer,RabidNinjaWombat</t>
     </r>
   </si>
+  <si>
+    <t>nduniversity</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>0.0, 5, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -5, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0,-5, 0,  0.0, -1, 0, 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Netherdyne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t xml:space="preserve"> University</t>
+    </r>
+  </si>
+  <si>
+    <t>With the recruiting office, you can recruit Civilians into your space program!  It's always nice to show the little people some love.</t>
+  </si>
+  <si>
+    <t>ModuleCommand</t>
+  </si>
+  <si>
+    <t>minimumCrew</t>
+  </si>
+  <si>
+    <t>ModuleScienceLab</t>
+  </si>
+  <si>
+    <t>containerModuleIndex</t>
+  </si>
+  <si>
+    <t>dataStorage</t>
+  </si>
+  <si>
+    <t>crewsRequired</t>
+  </si>
+  <si>
+    <t>canResetConnectedModules</t>
+  </si>
+  <si>
+    <t>interactionRange</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>SurfaceBonus</t>
+  </si>
+  <si>
+    <t>ContextBonus</t>
+  </si>
+  <si>
+    <t>homeworldMultiplier</t>
+  </si>
+  <si>
+    <t>canResetNearbyModules</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Science/university</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1186,6 +1262,11 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF2600"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1211,7 +1292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1220,6 +1301,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1501,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4126,6 +4209,89 @@
         <v>335</v>
       </c>
     </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P33" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="R33" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S33" s="1">
+        <v>80000</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W33" s="1">
+        <v>15</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4134,10 +4300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4474,6 +4640,14 @@
         <v>329</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4481,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4541,6 +4715,14 @@
         <v>288</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4548,10 +4730,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4770,21 +4952,21 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
         <v>199</v>
@@ -4798,16 +4980,86 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>249</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>199</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4817,16 +5069,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -4851,9 +5103,19 @@
     <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.33203125" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4932,8 +5194,38 @@
       <c r="Z1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -4950,7 +5242,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -4970,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -4987,7 +5279,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -5007,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5018,7 +5310,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -5026,7 +5318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -5055,7 +5347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5090,7 +5382,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -5101,7 +5393,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -5127,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -5138,7 +5430,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -5164,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -5175,7 +5467,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -5201,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>319</v>
       </c>
@@ -5212,7 +5504,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -5223,7 +5515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -5234,7 +5526,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -5253,6 +5545,152 @@
       <c r="X19" t="s">
         <v>337</v>
       </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="T21" t="s">
+        <v>306</v>
+      </c>
+      <c r="U21" t="s">
+        <v>305</v>
+      </c>
+      <c r="V21" t="s">
+        <v>304</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>500</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5261,21 +5699,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5294,8 +5732,14 @@
       <c r="F1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -5312,7 +5756,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5332,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5352,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -5372,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>178</v>
       </c>
@@ -5389,7 +5833,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>178</v>
       </c>
@@ -5409,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -5429,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>178</v>
       </c>
@@ -5449,25 +5893,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -54,8 +54,63 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> MODULE
+ {
+ name = ModuleAnimateGeneric
+ animationName = Harvesting
+ status = Moving..
+ allowManualControl = false
+ // startEventGUIName = Start
+ // endEventGUIName = Stop
+ }
+ // MODULE
+ // {
+ // name = ModuleAnimationGroup
+ // activeAnimationName = Harvesters_Move
+ // // deployActionName = Activate
+ // // retractActionName = Deactivate
+ // moduleType = Harvesters
+ // }
+ // MODULE
+ // {
+ // name = ModuleAnimateGeneric
+ // animationName = Harvesters_Move
+ // // allowManualControl = false
+ // // startEventGUIName = Inflate Module
+ // // endEventGUIName = Deflate Module
+ // }
+ // MODULE
+ // {
+ // name = ModuleAnimateGeneric
+ // animationName = Arms_Move
+ // // startEventGUIName = Inflate Module
+ // // endEventGUIName = Deflate Module
+ // }
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="374">
   <si>
     <t>name</t>
   </si>
@@ -1215,6 +1270,42 @@
   </si>
   <si>
     <t>CivilianPopulation/Models/Science/university</t>
+  </si>
+  <si>
+    <t>t1civSmallGardenModule</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/Hydroponics_Small_01</t>
+  </si>
+  <si>
+    <t>0.0, 2.75, 0.0, 0.0, 1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>0.0, -2.75, 0.0, 0.0, -1.0, 0.0, 2</t>
+  </si>
+  <si>
+    <t>blank_1 , Squad/Parts/Command/mk1LanderCan/ksp_s_landerCan_diff</t>
+  </si>
+  <si>
+    <t>Small Hydroponic Garden Module</t>
+  </si>
+  <si>
+    <t>Every Kerbal and his brother is planting a garden these days. Show up your brother by planting one in orbit!  This module generates food for the kerbals on your ship.  Feeds 8.</t>
+  </si>
+  <si>
+    <t>ModuleAnimateGeneric</t>
+  </si>
+  <si>
+    <t>Harvesting</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Moving..</t>
+  </si>
+  <si>
+    <t>allowManualControl</t>
   </si>
 </sst>
 </file>
@@ -1584,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1687,7 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
@@ -4292,6 +4383,92 @@
         <v>346</v>
       </c>
     </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R34" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S34" s="1">
+        <v>13500</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4300,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4640,12 +4817,26 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>340</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4730,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5062,17 +5253,31 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5115,7 +5320,7 @@
     <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5224,8 +5429,14 @@
       <c r="AJ1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -5242,7 +5453,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5262,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -5279,7 +5490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -5299,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5310,7 +5521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -5318,7 +5529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -5347,7 +5558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5382,7 +5593,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -5393,7 +5604,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -5419,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -5430,7 +5641,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -5456,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -5467,7 +5678,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -5493,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>319</v>
       </c>
@@ -5504,7 +5715,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -5515,7 +5726,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -5526,7 +5737,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -5546,7 +5757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>340</v>
       </c>
@@ -5557,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>340</v>
       </c>
@@ -5583,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>340</v>
       </c>
@@ -5619,7 +5830,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>340</v>
       </c>
@@ -5628,38 +5839,53 @@
       </c>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" t="s">
+        <v>370</v>
+      </c>
       <c r="AB24" s="5"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AK24" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -5694,6 +5920,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7900" windowWidth="51080" windowHeight="20780" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="11540" windowWidth="51080" windowHeight="17140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="386">
   <si>
     <t>name</t>
   </si>
@@ -1307,12 +1307,48 @@
   <si>
     <t>allowManualControl</t>
   </si>
+  <si>
+    <t>t1civGardenBiosphereMedium</t>
+  </si>
+  <si>
+    <t>t1civGardenBiosphere</t>
+  </si>
+  <si>
+    <t>0.0, 4.25, 0.0, 0.0, 1.0, 0.0, 4</t>
+  </si>
+  <si>
+    <t>0.0, -4.25, 0.0, 0.0, -1.0, 0.0, 4</t>
+  </si>
+  <si>
+    <t>Small Hydroponic Garden Biosphere</t>
+  </si>
+  <si>
+    <t>Combining new advances in Direct-to-Root (TM) hydroponics technology with traditional agriculture and the ancient art of origami, Netherdyne presents the Small Garden Biosphere. A step up from our smaller hydroponics range, this computer-controlled unit allows forming a complete biosphere for several families of kerbals. By folding the garden in on itself, we've compacted it into a handy sphere, suitable for integration into any large space station. Supports up to 25 civilians.</t>
+  </si>
+  <si>
+    <t>0.0, 10.17, 0.0, 0.0, 1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>0.0, -10.14, 0.0, 0.0, -1.0, 0.0, 5</t>
+  </si>
+  <si>
+    <t>Hydroponic Garden Biosphere</t>
+  </si>
+  <si>
+    <t>The cornerstone of your generation ship or space station the Hydroponic Garden Biosphere provides enough food for 50 civilians.</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/Hydroponics_Medium_01</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/Hydroponics_Large_01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1358,6 +1394,11 @@
       <color rgb="FFFF2600"/>
       <name val="Monaco"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3933FF"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1383,7 +1424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1394,6 +1435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1675,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="P2" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4469,6 +4511,168 @@
         <v>368</v>
       </c>
     </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R35" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S35" s="5">
+        <v>75000</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W35" s="5">
+        <v>10</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R36" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S36" s="5">
+        <v>180000</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W36" s="5">
+        <v>20</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4477,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4836,6 +5040,28 @@
         <v>266</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4921,10 +5147,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5267,6 +5493,34 @@
         <v>50</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5276,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11540" windowWidth="51080" windowHeight="17140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="421">
   <si>
     <t>name</t>
   </si>
@@ -1342,6 +1342,111 @@
   </si>
   <si>
     <t>CivilianPopulation/Models/Utility/Hydroponics_Large_01</t>
+  </si>
+  <si>
+    <t>megadrill</t>
+  </si>
+  <si>
+    <t>pipeNetwork</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRevamp/Assets/megadrill</t>
+  </si>
+  <si>
+    <t>0.0, 3.8, 0.0, 0.0, 1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>0.0, -6.15, 0.0, 0.0, -1.0, 0.0, 3</t>
+  </si>
+  <si>
+    <t>experimentalScience</t>
+  </si>
+  <si>
+    <t>Netherdyne XL-9000 Mega Laser Drill</t>
+  </si>
+  <si>
+    <t>When a small laser just wont do.  The XL-9000,known to Kerbonauts as "The Oaktree",  provides earth-shattering power and uses budget busting amounts of power. Warrenty void if installed on a small moon/space station as an orbital weapon.</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>ModuleResourceHarvester</t>
+  </si>
+  <si>
+    <t>HarvesterType</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Substrate Drill</t>
+  </si>
+  <si>
+    <t>Start Substrate Drill</t>
+  </si>
+  <si>
+    <t>Stop Substrate Drill</t>
+  </si>
+  <si>
+    <t>DeployBigLaser</t>
+  </si>
+  <si>
+    <t>Drill</t>
+  </si>
+  <si>
+    <t>Water Drill</t>
+  </si>
+  <si>
+    <t>Start Water Drill</t>
+  </si>
+  <si>
+    <t>Stop Water Drill</t>
+  </si>
+  <si>
+    <t>MetallicOre Drill</t>
+  </si>
+  <si>
+    <t>Start MetallicOre Drill</t>
+  </si>
+  <si>
+    <t>Stop MetallicOre Drill</t>
+  </si>
+  <si>
+    <t>Uraninite Drill</t>
+  </si>
+  <si>
+    <t>Start Uraninite Drill</t>
+  </si>
+  <si>
+    <t>Stop Uraninite Drill</t>
+  </si>
+  <si>
+    <t>RareMetals Drill</t>
+  </si>
+  <si>
+    <t>Start RareMetals Drill</t>
+  </si>
+  <si>
+    <t>Stop RareMetals Drill</t>
+  </si>
+  <si>
+    <t>Mineral Drill</t>
+  </si>
+  <si>
+    <t>Start Mineral Drill</t>
+  </si>
+  <si>
+    <t>Stop Mineral Drill</t>
+  </si>
+  <si>
+    <t>ExoticMinerals Drill</t>
+  </si>
+  <si>
+    <t>Start ExoticMinerals Drill</t>
+  </si>
+  <si>
+    <t>Stop ExoticMinerals Drill</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" zoomScale="84" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1739,7 +1845,7 @@
     <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4673,6 +4779,160 @@
         <v>383</v>
       </c>
     </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="R37" s="5">
+        <v>150000</v>
+      </c>
+      <c r="S37" s="5">
+        <v>100000</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>12</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG37" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R38" s="1">
+        <v>10400</v>
+      </c>
+      <c r="S38" s="5">
+        <v>75000</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="5">
+        <v>10</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>200</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>2900</v>
+      </c>
+      <c r="AG38" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4681,10 +4941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5063,6 +5323,19 @@
       </c>
       <c r="D36" s="3" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5528,10 +5801,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5574,7 +5848,7 @@
     <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5689,8 +5963,20 @@
       <c r="AL1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AM1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -5707,7 +5993,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5727,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -5744,7 +6030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -5764,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -5775,7 +6061,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -5783,7 +6069,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -5812,7 +6098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -5847,7 +6133,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -5858,7 +6144,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -5884,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -5895,7 +6181,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -5921,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -5932,7 +6218,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -5958,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>319</v>
       </c>
@@ -5969,7 +6255,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -5980,7 +6266,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -5991,7 +6277,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -6011,7 +6297,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>340</v>
       </c>
@@ -6022,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>340</v>
       </c>
@@ -6048,7 +6334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>340</v>
       </c>
@@ -6084,7 +6370,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>340</v>
       </c>
@@ -6093,7 +6379,7 @@
       </c>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>362</v>
       </c>
@@ -6111,36 +6397,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>24</v>
+      </c>
+      <c r="AO25" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>24</v>
+      </c>
+      <c r="AO26" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="AB27" s="5"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>24</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="AB28" s="5"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>24</v>
+      </c>
+      <c r="AO28" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>24</v>
+      </c>
+      <c r="AO29" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>24</v>
+      </c>
+      <c r="AO30" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="AB31" s="5"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>24</v>
+      </c>
+      <c r="AO31" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AB32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -6171,6 +6633,9 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6183,7 +6648,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6392,7 +6857,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="436">
   <si>
     <t>name</t>
   </si>
@@ -1350,9 +1350,6 @@
     <t>pipeNetwork</t>
   </si>
   <si>
-    <t>CivilianPopulationRevamp/Assets/megadrill</t>
-  </si>
-  <si>
     <t>0.0, 3.8, 0.0, 0.0, 1.0, 0.0, 3</t>
   </si>
   <si>
@@ -1447,13 +1444,61 @@
   </si>
   <si>
     <t>Stop ExoticMinerals Drill</t>
+  </si>
+  <si>
+    <t>MetallicOre</t>
+  </si>
+  <si>
+    <t>Uraninite</t>
+  </si>
+  <si>
+    <t>RareMetals</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>ExoticMinerals</t>
+  </si>
+  <si>
+    <t>RecipeInputs</t>
+  </si>
+  <si>
+    <t>ElectricCharge,6</t>
+  </si>
+  <si>
+    <t>HarvestThreshold</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>1.2, 0, 0, 1, 0, 0, 2</t>
+  </si>
+  <si>
+    <t>Netherdyne Laser Drill</t>
+  </si>
+  <si>
+    <t>Extract Planetary Resources with the power of Lasers!</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/megadrill</t>
+  </si>
+  <si>
+    <t>CivilianPopulation/Models/Utility/laserDrill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,16 +1539,6 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF2600"/>
-      <name val="Monaco"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3933FF"/>
-      <name val="Monaco"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1529,7 +1564,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1537,10 +1572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1824,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD37" sqref="AD37"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T38" sqref="T37:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1870,7 @@
     <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
@@ -4449,7 +4480,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4467,22 +4498,22 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="1" t="s">
         <v>202</v>
       </c>
       <c r="P33" s="1">
         <v>8</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="1" t="s">
         <v>314</v>
       </c>
       <c r="R33" s="1">
@@ -4491,13 +4522,13 @@
       <c r="S33" s="1">
         <v>80000</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="T33" s="1" t="s">
         <v>345</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="V33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="W33" s="1">
@@ -4527,12 +4558,12 @@
       <c r="AE33" s="1">
         <v>2900</v>
       </c>
-      <c r="AG33" s="3" t="s">
+      <c r="AG33" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4553,16 +4584,16 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="1" t="s">
         <v>202</v>
       </c>
       <c r="P34" s="1">
@@ -4577,13 +4608,13 @@
       <c r="S34" s="1">
         <v>13500</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="V34" s="1" t="s">
         <v>255</v>
       </c>
       <c r="W34" s="1">
@@ -4613,12 +4644,12 @@
       <c r="AE34" s="1">
         <v>2900</v>
       </c>
-      <c r="AG34" s="5" t="s">
+      <c r="AG34" s="1" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4639,38 +4670,37 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="1" t="s">
         <v>202</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="1" t="s">
         <v>314</v>
       </c>
       <c r="R35" s="1">
         <v>10400</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="1">
         <v>75000</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="1">
         <v>10</v>
       </c>
       <c r="X35" s="1" t="s">
@@ -4685,7 +4715,7 @@
       <c r="AA35" s="1">
         <v>2</v>
       </c>
-      <c r="AB35" s="5">
+      <c r="AB35" s="1">
         <v>10</v>
       </c>
       <c r="AC35" s="1">
@@ -4697,12 +4727,12 @@
       <c r="AE35" s="1">
         <v>2900</v>
       </c>
-      <c r="AG35" s="5" t="s">
+      <c r="AG35" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4717,38 +4747,37 @@
       <c r="E36" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="1" t="s">
         <v>202</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="1" t="s">
         <v>100</v>
       </c>
       <c r="R36" s="1">
         <v>10400</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="1">
         <v>180000</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="U36" s="5" t="s">
+      <c r="U36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V36" s="5" t="s">
+      <c r="V36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="1">
         <v>20</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -4775,12 +4804,12 @@
       <c r="AE36" s="1">
         <v>2900</v>
       </c>
-      <c r="AG36" s="5" t="s">
+      <c r="AG36" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4792,43 +4821,41 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5" t="s">
+      <c r="R37" s="1">
+        <v>150000</v>
+      </c>
+      <c r="S37" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="R37" s="5">
-        <v>150000</v>
-      </c>
-      <c r="S37" s="5">
-        <v>100000</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="V37" s="5" t="s">
+      <c r="V37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W37" s="5" t="s">
-        <v>394</v>
+      <c r="W37" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>31</v>
@@ -4842,18 +4869,18 @@
       <c r="AA37" s="1">
         <v>2</v>
       </c>
-      <c r="AB37" s="5">
+      <c r="AB37" s="1">
         <v>12</v>
       </c>
       <c r="AE37" s="1">
         <v>2900</v>
       </c>
-      <c r="AG37" s="3" t="s">
-        <v>393</v>
+      <c r="AG37" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4865,60 +4892,50 @@
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>147</v>
+      <c r="E38" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>314</v>
+      <c r="N38" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="R38" s="1">
-        <v>10400</v>
-      </c>
-      <c r="S38" s="5">
-        <v>75000</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" s="5">
-        <v>10</v>
+        <v>5000</v>
+      </c>
+      <c r="S38" s="1">
+        <v>16500</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>35</v>
+        <v>433</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB38" s="5">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>7</v>
       </c>
       <c r="AC38" s="1">
         <v>200</v>
@@ -4927,10 +4944,10 @@
         <v>200</v>
       </c>
       <c r="AE38" s="1">
-        <v>2900</v>
-      </c>
-      <c r="AG38" s="5" t="s">
-        <v>379</v>
+        <v>5000</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4943,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5234,7 +5251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>286</v>
       </c>
@@ -5244,11 +5261,11 @@
       <c r="C29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>308</v>
       </c>
@@ -5258,7 +5275,7 @@
       <c r="C30" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5282,60 +5299,63 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>388</v>
+      <c r="B37" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="1" t="s">
         <v>387</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5348,7 +5368,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5406,7 +5426,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>340</v>
       </c>
       <c r="B7" t="s">
@@ -5422,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5739,7 +5759,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>340</v>
       </c>
       <c r="B22" t="s">
@@ -5753,7 +5773,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>362</v>
       </c>
       <c r="B23" t="s">
@@ -5767,7 +5787,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>374</v>
       </c>
       <c r="B24" t="s">
@@ -5781,7 +5801,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
         <v>375</v>
       </c>
       <c r="B25" t="s">
@@ -5801,20 +5821,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -5841,14 +5861,19 @@
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.33203125" customWidth="1"/>
+    <col min="32" max="32" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12.5" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5927,7 +5952,7 @@
       <c r="Z1" t="s">
         <v>326</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" t="s">
         <v>348</v>
       </c>
       <c r="AB1" t="s">
@@ -5942,7 +5967,7 @@
       <c r="AE1" t="s">
         <v>353</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" t="s">
         <v>359</v>
       </c>
       <c r="AG1" t="s">
@@ -5963,20 +5988,23 @@
       <c r="AL1" t="s">
         <v>373</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN1" t="s">
         <v>396</v>
       </c>
-      <c r="AN1" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" t="s">
         <v>164</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -5993,7 +6021,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -6013,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -6030,7 +6058,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -6050,7 +6078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -6061,7 +6089,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -6069,7 +6097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -6098,7 +6126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -6133,7 +6161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -6144,7 +6172,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -6170,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -6181,7 +6209,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -6207,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -6218,7 +6246,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>319</v>
       </c>
@@ -6244,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>319</v>
       </c>
@@ -6255,7 +6283,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>319</v>
       </c>
@@ -6266,7 +6294,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -6277,7 +6305,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -6297,22 +6325,22 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>347</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>297</v>
       </c>
       <c r="T21" t="s">
@@ -6334,14 +6362,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>349</v>
       </c>
-      <c r="C22" s="5"/>
       <c r="AB22">
         <v>1</v>
       </c>
@@ -6370,17 +6397,16 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>198</v>
       </c>
-      <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>362</v>
       </c>
       <c r="B24" t="s">
@@ -6389,7 +6415,6 @@
       <c r="K24" t="s">
         <v>370</v>
       </c>
-      <c r="AB24" s="5"/>
       <c r="AK24" t="s">
         <v>372</v>
       </c>
@@ -6397,245 +6422,433 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>386</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" t="s">
         <v>398</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" t="s">
         <v>399</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB25" s="5"/>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
         <v>24</v>
       </c>
-      <c r="AO25" s="5" t="s">
+      <c r="AO25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>386</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" t="s">
         <v>403</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" t="s">
         <v>404</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB26" s="5"/>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
         <v>24</v>
       </c>
-      <c r="AO26" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="AO26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>386</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" t="s">
         <v>406</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB27" s="5"/>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
         <v>24</v>
       </c>
-      <c r="AO27" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="AO27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>386</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" t="s">
         <v>409</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" t="s">
         <v>410</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB28" s="5"/>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
         <v>24</v>
       </c>
-      <c r="AO28" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="AO28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>386</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" t="s">
         <v>412</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" t="s">
         <v>413</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB29" s="5"/>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29">
         <v>24</v>
       </c>
-      <c r="AO29" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="AO29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>386</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" t="s">
         <v>415</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" t="s">
         <v>416</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB30" s="5"/>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30">
         <v>24</v>
       </c>
-      <c r="AO30" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="AO30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" t="s">
         <v>418</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" t="s">
         <v>419</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB31" s="5"/>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
         <v>24</v>
       </c>
-      <c r="AO31" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="AO31" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>386</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>401</v>
+      <c r="F32" t="s">
+        <v>400</v>
       </c>
       <c r="G32" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
         <v>402</v>
       </c>
-      <c r="AB32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" t="s">
+        <v>401</v>
+      </c>
+      <c r="H40" t="s">
+        <v>401</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6645,10 +6858,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6678,10 +6891,10 @@
       <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6763,7 +6976,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>178</v>
       </c>
       <c r="B6" t="s">
@@ -6780,7 +6993,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>178</v>
       </c>
       <c r="B7" t="s">
@@ -6800,7 +7013,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>178</v>
       </c>
       <c r="B8" t="s">
@@ -6820,7 +7033,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
       <c r="B9" t="s">
@@ -6840,13 +7053,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>349</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>360</v>
       </c>
       <c r="G10" t="s">
@@ -6857,16 +7070,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>398</v>
+      <c r="B11" t="s">
+        <v>397</v>
       </c>
       <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>109</v>
       </c>
       <c r="E11">
@@ -6874,67 +7087,225 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="A16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="436">
   <si>
     <t>name</t>
   </si>
@@ -1855,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T38" sqref="T37:T38"/>
+      <selection pane="bottomLeft" activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5440,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5770,48 +5770,6 @@
       </c>
       <c r="D22">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25">
-        <v>400</v>
-      </c>
-      <c r="D25">
-        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="INTERNAL" sheetId="8" r:id="rId3"/>
     <sheet name="RESOURCE" sheetId="5" r:id="rId4"/>
     <sheet name="MODULE" sheetId="6" r:id="rId5"/>
-    <sheet name="CONVERSION" sheetId="7" r:id="rId6"/>
+    <sheet name="MODULE 1.2" sheetId="9" r:id="rId6"/>
+    <sheet name="CONVERSION" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -55,6 +56,61 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> MODULE
+ {
+ name = ModuleAnimateGeneric
+ animationName = Harvesting
+ status = Moving..
+ allowManualControl = false
+ // startEventGUIName = Start
+ // endEventGUIName = Stop
+ }
+ // MODULE
+ // {
+ // name = ModuleAnimationGroup
+ // activeAnimationName = Harvesters_Move
+ // // deployActionName = Activate
+ // // retractActionName = Deactivate
+ // moduleType = Harvesters
+ // }
+ // MODULE
+ // {
+ // name = ModuleAnimateGeneric
+ // animationName = Harvesters_Move
+ // // allowManualControl = false
+ // // startEventGUIName = Inflate Module
+ // // endEventGUIName = Deflate Module
+ // }
+ // MODULE
+ // {
+ // name = ModuleAnimateGeneric
+ // animationName = Arms_Move
+ // // startEventGUIName = Inflate Module
+ // // endEventGUIName = Deflate Module
+ // }
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -110,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="436">
   <si>
     <t>name</t>
   </si>
@@ -1856,8 +1912,8 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA34" sqref="AA34"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4961,7 +5017,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5442,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5779,11 +5835,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5981,158 +6037,155 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>161</v>
+        <v>297</v>
+      </c>
+      <c r="T4" t="s">
+        <v>306</v>
+      </c>
+      <c r="U4" t="s">
+        <v>305</v>
+      </c>
+      <c r="V4" t="s">
+        <v>304</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" t="b">
+        <v>297</v>
+      </c>
+      <c r="T5" t="s">
+        <v>306</v>
+      </c>
+      <c r="U5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V5" t="s">
+        <v>304</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" t="s">
-        <v>197</v>
+        <v>297</v>
+      </c>
+      <c r="T6" t="s">
+        <v>306</v>
+      </c>
+      <c r="U6" t="s">
+        <v>305</v>
+      </c>
+      <c r="V6" t="s">
+        <v>304</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>325</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" t="s">
-        <v>228</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>20000</v>
-      </c>
-      <c r="P8">
-        <v>100</v>
-      </c>
-      <c r="Q8">
-        <v>55</v>
+        <v>325</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" t="s">
-        <v>237</v>
-      </c>
-      <c r="L9" t="s">
-        <v>226</v>
-      </c>
-      <c r="M9" t="s">
-        <v>238</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>20000</v>
-      </c>
-      <c r="P9">
-        <v>100</v>
-      </c>
-      <c r="Q9">
-        <v>55</v>
-      </c>
-      <c r="R9" t="b">
+        <v>297</v>
+      </c>
+      <c r="T9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U9" t="s">
+        <v>305</v>
+      </c>
+      <c r="W9" t="b">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
-        <v>241</v>
+      <c r="X9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
-      </c>
-      <c r="J10" t="s">
-        <v>295</v>
+        <v>347</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>297</v>
@@ -6158,653 +6211,481 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J12" t="s">
-        <v>295</v>
+        <v>349</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>500</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
-      </c>
-      <c r="T13" t="s">
-        <v>306</v>
-      </c>
-      <c r="U13" t="s">
-        <v>305</v>
-      </c>
-      <c r="V13" t="s">
-        <v>304</v>
-      </c>
-      <c r="W13" t="b">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13" t="b">
-        <v>1</v>
+        <v>369</v>
+      </c>
+      <c r="K13" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" t="s">
-        <v>295</v>
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>24</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
-      </c>
-      <c r="T15" t="s">
-        <v>306</v>
-      </c>
-      <c r="U15" t="s">
-        <v>305</v>
-      </c>
-      <c r="V15" t="s">
-        <v>304</v>
-      </c>
-      <c r="W15" t="b">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15" t="b">
-        <v>1</v>
+        <v>394</v>
+      </c>
+      <c r="C15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E15" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>24</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>327</v>
+        <v>394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>24</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>328</v>
+        <v>394</v>
+      </c>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>24</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" t="s">
-        <v>295</v>
+        <v>394</v>
+      </c>
+      <c r="C18" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>24</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
-      </c>
-      <c r="T19" t="s">
-        <v>338</v>
-      </c>
-      <c r="U19" t="s">
-        <v>305</v>
-      </c>
-      <c r="W19" t="b">
-        <v>1</v>
-      </c>
-      <c r="X19" t="s">
-        <v>337</v>
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>24</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="C20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>24</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
-      </c>
-      <c r="T21" t="s">
-        <v>306</v>
-      </c>
-      <c r="U21" t="s">
-        <v>305</v>
-      </c>
-      <c r="V21" t="s">
-        <v>304</v>
-      </c>
-      <c r="W21" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>2</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>400</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>500</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>5</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>137</v>
+        <v>394</v>
+      </c>
+      <c r="C22" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>394</v>
+      </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E23" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
-      </c>
-      <c r="K24" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL24" t="b">
-        <v>0</v>
+        <v>394</v>
+      </c>
+      <c r="C24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E24" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B25" t="s">
         <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D25" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="s">
-        <v>138</v>
+        <v>421</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s">
         <v>394</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="s">
-        <v>139</v>
+        <v>422</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
         <v>394</v>
       </c>
       <c r="C27" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E27" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D28" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AP28" t="s">
         <v>426</v>
       </c>
+      <c r="AQ28" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
-      </c>
-      <c r="C29" t="s">
-        <v>411</v>
-      </c>
-      <c r="D29" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" t="s">
-        <v>413</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>24</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>422</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>386</v>
-      </c>
-      <c r="B30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C30" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="E30" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>24</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>386</v>
-      </c>
-      <c r="B31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C31" t="s">
-        <v>417</v>
-      </c>
-      <c r="D31" t="s">
-        <v>418</v>
-      </c>
-      <c r="E31" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>24</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>386</v>
-      </c>
-      <c r="B32" t="s">
         <v>171</v>
       </c>
-      <c r="F32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B33" t="s">
-        <v>394</v>
-      </c>
-      <c r="C33" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" t="s">
-        <v>398</v>
-      </c>
-      <c r="E33" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>4</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B34" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" t="s">
-        <v>402</v>
-      </c>
-      <c r="D34" t="s">
-        <v>403</v>
-      </c>
-      <c r="E34" t="s">
-        <v>404</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>4</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C35" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" t="s">
-        <v>407</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>4</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B36" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" t="s">
-        <v>409</v>
-      </c>
-      <c r="E36" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>4</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>387</v>
-      </c>
-      <c r="B37" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" t="s">
-        <v>411</v>
-      </c>
-      <c r="D37" t="s">
-        <v>412</v>
-      </c>
-      <c r="E37" t="s">
-        <v>413</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>4</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>422</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>387</v>
-      </c>
-      <c r="B38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" t="s">
-        <v>414</v>
-      </c>
-      <c r="D38" t="s">
-        <v>415</v>
-      </c>
-      <c r="E38" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>4</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>387</v>
-      </c>
-      <c r="B39" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" t="s">
-        <v>417</v>
-      </c>
-      <c r="D39" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>4</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>387</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" t="s">
-        <v>401</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="H29" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6815,6 +6696,999 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s">
+        <v>298</v>
+      </c>
+      <c r="U1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" t="s">
+        <v>300</v>
+      </c>
+      <c r="W1" t="s">
+        <v>301</v>
+      </c>
+      <c r="X1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>20000</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" t="s">
+        <v>237</v>
+      </c>
+      <c r="L9" t="s">
+        <v>226</v>
+      </c>
+      <c r="M9" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>20000</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>55</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="T11" t="s">
+        <v>306</v>
+      </c>
+      <c r="U11" t="s">
+        <v>305</v>
+      </c>
+      <c r="V11" t="s">
+        <v>304</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="T13" t="s">
+        <v>306</v>
+      </c>
+      <c r="U13" t="s">
+        <v>305</v>
+      </c>
+      <c r="V13" t="s">
+        <v>304</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="T15" t="s">
+        <v>306</v>
+      </c>
+      <c r="U15" t="s">
+        <v>305</v>
+      </c>
+      <c r="V15" t="s">
+        <v>304</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+      <c r="T19" t="s">
+        <v>338</v>
+      </c>
+      <c r="U19" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>297</v>
+      </c>
+      <c r="T21" t="s">
+        <v>306</v>
+      </c>
+      <c r="U21" t="s">
+        <v>305</v>
+      </c>
+      <c r="V21" t="s">
+        <v>304</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>500</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="K24" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>24</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>24</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>24</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>24</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E30" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>24</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>24</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>4</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>4</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" t="s">
+        <v>415</v>
+      </c>
+      <c r="E38" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>4</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" t="s">
+        <v>401</v>
+      </c>
+      <c r="H40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18740" windowWidth="51080" windowHeight="9940" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -1912,8 +1912,8 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5016,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5424,7 +5424,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5499,7 +5499,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5837,9 +5837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7692,8 +7692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="437">
   <si>
     <t>name</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>CivilianPopulation/Models/Utility/laserDrill</t>
+  </si>
+  <si>
+    <t>CivilianPopulationDockModule</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1916,7 @@
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:C21"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5016,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5498,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5835,11 +5838,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AQ30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6054,33 +6057,18 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
-      </c>
-      <c r="T4" t="s">
-        <v>306</v>
-      </c>
-      <c r="U4" t="s">
-        <v>305</v>
-      </c>
-      <c r="V4" t="s">
-        <v>304</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>1</v>
+        <v>436</v>
+      </c>
+      <c r="J4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>297</v>
@@ -6106,7 +6094,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
         <v>297</v>
@@ -6135,10 +6123,25 @@
         <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>327</v>
+        <v>297</v>
+      </c>
+      <c r="T7" t="s">
+        <v>306</v>
+      </c>
+      <c r="U7" t="s">
+        <v>305</v>
+      </c>
+      <c r="V7" t="s">
+        <v>304</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -6149,38 +6152,38 @@
         <v>325</v>
       </c>
       <c r="Z8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
-      </c>
-      <c r="T9" t="s">
-        <v>338</v>
-      </c>
-      <c r="U9" t="s">
-        <v>305</v>
-      </c>
-      <c r="W9" t="b">
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>337</v>
+        <v>325</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="T10" t="s">
+        <v>338</v>
+      </c>
+      <c r="U10" t="s">
+        <v>305</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -6188,25 +6191,10 @@
         <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
-      </c>
-      <c r="T11" t="s">
-        <v>306</v>
-      </c>
-      <c r="U11" t="s">
-        <v>305</v>
-      </c>
-      <c r="V11" t="s">
-        <v>304</v>
-      </c>
-      <c r="W11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>1</v>
+        <v>347</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -6214,77 +6202,77 @@
         <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB12">
+        <v>297</v>
+      </c>
+      <c r="T12" t="s">
+        <v>306</v>
+      </c>
+      <c r="U12" t="s">
+        <v>305</v>
+      </c>
+      <c r="V12" t="s">
+        <v>304</v>
+      </c>
+      <c r="W12" t="b">
         <v>1</v>
       </c>
-      <c r="AC12">
-        <v>500</v>
-      </c>
-      <c r="AD12">
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="b">
         <v>1</v>
-      </c>
-      <c r="AE12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>5</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
-      </c>
-      <c r="K13" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL13" t="b">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>500</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D14" t="s">
-        <v>398</v>
-      </c>
-      <c r="E14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>24</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>138</v>
+        <v>369</v>
+      </c>
+      <c r="K14" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -6295,13 +6283,13 @@
         <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -6310,7 +6298,7 @@
         <v>24</v>
       </c>
       <c r="AO15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -6321,13 +6309,13 @@
         <v>394</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -6336,7 +6324,7 @@
         <v>24</v>
       </c>
       <c r="AO16" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
@@ -6347,13 +6335,13 @@
         <v>394</v>
       </c>
       <c r="C17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -6362,10 +6350,7 @@
         <v>24</v>
       </c>
       <c r="AO17" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
@@ -6376,13 +6361,13 @@
         <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -6391,13 +6376,10 @@
         <v>24</v>
       </c>
       <c r="AO18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AP18" t="s">
         <v>426</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
@@ -6408,13 +6390,13 @@
         <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -6423,7 +6405,13 @@
         <v>24</v>
       </c>
       <c r="AO19" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
@@ -6434,13 +6422,13 @@
         <v>394</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -6449,13 +6437,7 @@
         <v>24</v>
       </c>
       <c r="AO20" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
@@ -6463,42 +6445,48 @@
         <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" t="s">
-        <v>400</v>
-      </c>
-      <c r="G21" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+      <c r="C21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>24</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C22" t="s">
-        <v>397</v>
-      </c>
-      <c r="D22" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
@@ -6509,13 +6497,13 @@
         <v>394</v>
       </c>
       <c r="C23" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E23" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -6524,7 +6512,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
@@ -6535,13 +6523,13 @@
         <v>394</v>
       </c>
       <c r="C24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -6550,7 +6538,7 @@
         <v>4</v>
       </c>
       <c r="AO24" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
@@ -6561,13 +6549,13 @@
         <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -6576,10 +6564,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
@@ -6590,13 +6575,13 @@
         <v>394</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -6605,13 +6590,10 @@
         <v>4</v>
       </c>
       <c r="AO26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AP26" t="s">
         <v>426</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
@@ -6622,13 +6604,13 @@
         <v>394</v>
       </c>
       <c r="C27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E27" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -6637,7 +6619,13 @@
         <v>4</v>
       </c>
       <c r="AO27" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
@@ -6648,13 +6636,13 @@
         <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -6663,13 +6651,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
@@ -6677,15 +6659,47 @@
         <v>387</v>
       </c>
       <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" t="s">
         <v>171</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>237</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>401</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6700,10 +6714,14 @@
   <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ40"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/git/CivilianPopulation/parts/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleroy/git/CivilianPopulation/parts/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="439">
   <si>
     <t>name</t>
   </si>
@@ -807,9 +807,6 @@
     <t>KerbalRecruitment</t>
   </si>
   <si>
-    <t>CivilianGrowthCounter</t>
-  </si>
-  <si>
     <t>crewCabinInternals</t>
   </si>
   <si>
@@ -1551,6 +1548,15 @@
   </si>
   <si>
     <t>CivilianPopulationDockModule</t>
+  </si>
+  <si>
+    <t>CivilianPopulationRecruitmentModule</t>
+  </si>
+  <si>
+    <t>Pilot,Engineer,Scientist</t>
+  </si>
+  <si>
+    <t>recruitmentTraits</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1922,7 @@
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2007,7 @@
         <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -3260,7 +3266,7 @@
         <v>191</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P17" s="1">
         <v>4</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -3334,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -3349,7 +3355,7 @@
         <v>1000</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>133</v>
@@ -3379,12 +3385,12 @@
         <v>2900</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -3402,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -3417,7 +3423,7 @@
         <v>1000</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>133</v>
@@ -3447,18 +3453,18 @@
         <v>2900</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -3470,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="R20" s="1">
         <v>2200</v>
@@ -3482,13 +3488,13 @@
         <v>2500</v>
       </c>
       <c r="T20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="W20" s="1">
         <v>4</v>
@@ -3521,18 +3527,18 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -3544,10 +3550,10 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="R21" s="1">
         <v>2200</v>
@@ -3556,13 +3562,13 @@
         <v>2500</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="W21" s="1">
         <v>3</v>
@@ -3595,12 +3601,12 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -3618,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>15</v>
@@ -3636,13 +3642,13 @@
         <v>2000</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W22" s="1">
         <v>18</v>
@@ -3672,12 +3678,12 @@
         <v>3000</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -3689,19 +3695,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>15</v>
@@ -3713,13 +3719,13 @@
         <v>2000</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W23" s="1">
         <v>12</v>
@@ -3749,12 +3755,12 @@
         <v>3000</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -3775,25 +3781,25 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>15</v>
@@ -3805,13 +3811,13 @@
         <v>2000</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W24" s="1">
         <v>7</v>
@@ -3841,12 +3847,12 @@
         <v>3000</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -3858,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -3867,25 +3873,25 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>15</v>
@@ -3897,13 +3903,13 @@
         <v>2000</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W25" s="1">
         <v>9</v>
@@ -3933,12 +3939,12 @@
         <v>3000</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -3950,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -3959,25 +3965,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>15</v>
@@ -3989,13 +3995,13 @@
         <v>2000</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W26" s="1">
         <v>9</v>
@@ -4025,12 +4031,12 @@
         <v>3000</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -4051,25 +4057,25 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>15</v>
@@ -4081,13 +4087,13 @@
         <v>2000</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W27" s="1">
         <v>9</v>
@@ -4117,12 +4123,12 @@
         <v>3000</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -4134,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -4143,25 +4149,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>15</v>
@@ -4173,13 +4179,13 @@
         <v>2000</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W28" s="1">
         <v>4</v>
@@ -4209,12 +4215,12 @@
         <v>3000</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
@@ -4226,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -4235,13 +4241,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="P29" s="1">
         <v>8</v>
@@ -4256,7 +4262,7 @@
         <v>13500</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>193</v>
@@ -4292,12 +4298,12 @@
         <v>2900</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -4309,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -4318,19 +4324,19 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P30" s="1">
         <v>25</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R30" s="1">
         <v>10400</v>
@@ -4339,7 +4345,7 @@
         <v>80000</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>193</v>
@@ -4375,12 +4381,12 @@
         <v>2900</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -4392,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -4401,13 +4407,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="P31" s="1">
         <v>60</v>
@@ -4422,7 +4428,7 @@
         <v>160000</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>193</v>
@@ -4458,12 +4464,12 @@
         <v>2900</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -4478,13 +4484,13 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="P32" s="1">
         <v>4</v>
@@ -4499,16 +4505,16 @@
         <v>13500</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>104</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>31</v>
@@ -4535,18 +4541,18 @@
         <v>2900</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -4558,22 +4564,22 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P33" s="1">
         <v>8</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R33" s="1">
         <v>10400</v>
@@ -4582,10 +4588,10 @@
         <v>80000</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>104</v>
@@ -4618,12 +4624,12 @@
         <v>2900</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -4635,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -4644,16 +4650,16 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="N34" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
@@ -4668,13 +4674,13 @@
         <v>13500</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>133</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W34" s="1">
         <v>2</v>
@@ -4704,12 +4710,12 @@
         <v>2900</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -4721,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -4730,19 +4736,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="O35" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R35" s="1">
         <v>10400</v>
@@ -4751,7 +4757,7 @@
         <v>75000</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>133</v>
@@ -4787,12 +4793,12 @@
         <v>2900</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -4804,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="O36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
@@ -4828,7 +4834,7 @@
         <v>180000</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>133</v>
@@ -4864,12 +4870,12 @@
         <v>2900</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
@@ -4887,16 +4893,16 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="R37" s="1">
         <v>150000</v>
@@ -4905,16 +4911,16 @@
         <v>100000</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>31</v>
@@ -4935,12 +4941,12 @@
         <v>2900</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -4952,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>100</v>
@@ -4970,19 +4976,19 @@
         <v>16500</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="W38" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="X38" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5006,11 +5012,12 @@
         <v>5000</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5198,223 +5205,223 @@
         <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5449,47 +5456,47 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5499,16 +5506,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -5693,141 +5700,71 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>109</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>109</v>
       </c>
       <c r="C17">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19">
-        <v>500</v>
-      </c>
-      <c r="D19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22">
-        <v>1000</v>
-      </c>
-      <c r="D22">
         <v>1000</v>
       </c>
     </row>
@@ -5838,17 +5775,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ30"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -5887,10 +5824,13 @@
     <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5922,106 +5862,109 @@
         <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
         <v>229</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" t="s">
-        <v>232</v>
-      </c>
       <c r="R1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" t="s">
-        <v>240</v>
-      </c>
       <c r="T1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U1" t="s">
         <v>298</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>299</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>300</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>301</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>302</v>
       </c>
-      <c r="Y1" t="s">
-        <v>303</v>
-      </c>
       <c r="Z1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC1" t="s">
         <v>350</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>351</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>352</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG1" t="s">
         <v>353</v>
       </c>
-      <c r="AF1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>354</v>
-      </c>
       <c r="AH1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI1" t="s">
         <v>356</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>357</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>358</v>
-      </c>
       <c r="AK1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN1" t="s">
         <v>395</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>396</v>
       </c>
       <c r="AO1" t="s">
         <v>164</v>
       </c>
       <c r="AP1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -6038,7 +5981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -6055,32 +5998,32 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W5" t="b">
         <v>1</v>
@@ -6092,21 +6035,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W6" t="b">
         <v>1</v>
@@ -6118,21 +6061,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W7" t="b">
         <v>1</v>
@@ -6144,74 +6087,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W12" t="b">
         <v>1</v>
@@ -6223,12 +6166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -6252,70 +6195,55 @@
         <v>137</v>
       </c>
       <c r="AI13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="K15" t="s">
         <v>369</v>
       </c>
-      <c r="K14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>386</v>
-      </c>
-      <c r="B15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="AK15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" t="s">
         <v>397</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>398</v>
-      </c>
-      <c r="E15" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>24</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" t="s">
-        <v>402</v>
-      </c>
-      <c r="D16" t="s">
-        <v>403</v>
-      </c>
-      <c r="E16" t="s">
-        <v>404</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -6324,24 +6252,24 @@
         <v>24</v>
       </c>
       <c r="AO16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -6350,24 +6278,24 @@
         <v>24</v>
       </c>
       <c r="AO17" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -6376,27 +6304,24 @@
         <v>24</v>
       </c>
       <c r="AO18" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -6405,30 +6330,27 @@
         <v>24</v>
       </c>
       <c r="AO19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AP19" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -6437,24 +6359,30 @@
         <v>24</v>
       </c>
       <c r="AO20" t="s">
-        <v>423</v>
+        <v>421</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -6463,73 +6391,73 @@
         <v>24</v>
       </c>
       <c r="AO21" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>24</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>394</v>
-      </c>
-      <c r="C23" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" t="s">
-        <v>398</v>
-      </c>
-      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
         <v>399</v>
       </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>4</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>138</v>
+      <c r="G23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H23" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -6538,24 +6466,24 @@
         <v>4</v>
       </c>
       <c r="AO24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D25" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -6564,24 +6492,24 @@
         <v>4</v>
       </c>
       <c r="AO25" t="s">
-        <v>420</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E26" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -6590,27 +6518,24 @@
         <v>4</v>
       </c>
       <c r="AO26" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -6619,30 +6544,27 @@
         <v>4</v>
       </c>
       <c r="AO27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AP27" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D28" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -6651,24 +6573,30 @@
         <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>423</v>
+        <v>421</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -6677,34 +6605,61 @@
         <v>4</v>
       </c>
       <c r="AO29" t="s">
-        <v>424</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" t="s">
+        <v>417</v>
+      </c>
+      <c r="E30" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>4</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" t="s">
         <v>171</v>
       </c>
-      <c r="F30" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" t="s">
-        <v>401</v>
-      </c>
-      <c r="H30" t="s">
-        <v>401</v>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H31" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6714,7 +6669,7 @@
   <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6755,103 +6710,103 @@
         <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O1" t="s">
         <v>229</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>230</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" t="s">
-        <v>232</v>
-      </c>
       <c r="R1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" t="s">
         <v>239</v>
       </c>
-      <c r="S1" t="s">
-        <v>240</v>
-      </c>
       <c r="T1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U1" t="s">
         <v>298</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>299</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>300</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>301</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>302</v>
       </c>
-      <c r="Y1" t="s">
-        <v>303</v>
-      </c>
       <c r="Z1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC1" t="s">
         <v>350</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>351</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>352</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AG1" t="s">
         <v>353</v>
       </c>
-      <c r="AF1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>354</v>
-      </c>
       <c r="AH1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI1" t="s">
         <v>356</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>357</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>358</v>
-      </c>
       <c r="AK1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN1" t="s">
         <v>395</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>396</v>
       </c>
       <c r="AO1" t="s">
         <v>164</v>
       </c>
       <c r="AP1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
@@ -6949,19 +6904,19 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -6978,19 +6933,19 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K9" t="s">
+        <v>236</v>
+      </c>
+      <c r="L9" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" t="s">
         <v>237</v>
-      </c>
-      <c r="L9" t="s">
-        <v>226</v>
-      </c>
-      <c r="M9" t="s">
-        <v>238</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -7008,35 +6963,35 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W11" t="b">
         <v>1</v>
@@ -7050,30 +7005,30 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W13" t="b">
         <v>1</v>
@@ -7087,30 +7042,30 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W15" t="b">
         <v>1</v>
@@ -7124,63 +7079,63 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W19" t="b">
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -7188,19 +7143,19 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W21" t="b">
         <v>1</v>
@@ -7214,10 +7169,10 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -7241,7 +7196,7 @@
         <v>137</v>
       </c>
       <c r="AI22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ22" t="s">
         <v>137</v>
@@ -7249,7 +7204,7 @@
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
         <v>198</v>
@@ -7257,16 +7212,16 @@
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s">
+        <v>368</v>
+      </c>
+      <c r="K24" t="s">
         <v>369</v>
       </c>
-      <c r="K24" t="s">
-        <v>370</v>
-      </c>
       <c r="AK24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL24" t="b">
         <v>0</v>
@@ -7274,19 +7229,19 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" t="s">
         <v>397</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>398</v>
-      </c>
-      <c r="E25" t="s">
-        <v>399</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -7300,19 +7255,19 @@
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" t="s">
         <v>402</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>403</v>
-      </c>
-      <c r="E26" t="s">
-        <v>404</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -7326,19 +7281,19 @@
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" t="s">
         <v>405</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>406</v>
-      </c>
-      <c r="E27" t="s">
-        <v>407</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -7347,24 +7302,24 @@
         <v>24</v>
       </c>
       <c r="AO27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D28" t="s">
         <v>408</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>409</v>
-      </c>
-      <c r="E28" t="s">
-        <v>410</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -7373,27 +7328,27 @@
         <v>24</v>
       </c>
       <c r="AO28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" t="s">
         <v>411</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>412</v>
-      </c>
-      <c r="E29" t="s">
-        <v>413</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -7402,30 +7357,30 @@
         <v>24</v>
       </c>
       <c r="AO29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AP29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D30" t="s">
         <v>414</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>415</v>
-      </c>
-      <c r="E30" t="s">
-        <v>416</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -7434,24 +7389,24 @@
         <v>24</v>
       </c>
       <c r="AO30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" t="s">
         <v>417</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>418</v>
-      </c>
-      <c r="E31" t="s">
-        <v>419</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -7460,47 +7415,47 @@
         <v>24</v>
       </c>
       <c r="AO31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AP31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B32" t="s">
         <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G32" t="s">
         <v>184</v>
       </c>
       <c r="H32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" t="s">
         <v>397</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>398</v>
-      </c>
-      <c r="E33" t="s">
-        <v>399</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -7514,19 +7469,19 @@
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" t="s">
         <v>402</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>403</v>
-      </c>
-      <c r="E34" t="s">
-        <v>404</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -7540,19 +7495,19 @@
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" t="s">
         <v>405</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>406</v>
-      </c>
-      <c r="E35" t="s">
-        <v>407</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -7561,24 +7516,24 @@
         <v>4</v>
       </c>
       <c r="AO35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" t="s">
         <v>408</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>409</v>
-      </c>
-      <c r="E36" t="s">
-        <v>410</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -7587,27 +7542,27 @@
         <v>4</v>
       </c>
       <c r="AO36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" t="s">
         <v>411</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>412</v>
-      </c>
-      <c r="E37" t="s">
-        <v>413</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7616,30 +7571,30 @@
         <v>4</v>
       </c>
       <c r="AO37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AP37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" t="s">
         <v>414</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>415</v>
-      </c>
-      <c r="E38" t="s">
-        <v>416</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -7648,24 +7603,24 @@
         <v>4</v>
       </c>
       <c r="AO38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" t="s">
         <v>417</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>418</v>
-      </c>
-      <c r="E39" t="s">
-        <v>419</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -7674,34 +7629,35 @@
         <v>4</v>
       </c>
       <c r="AO39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AP39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AQ39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s">
         <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7904,13 +7860,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
         <v>109</v>
@@ -7921,10 +7877,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
         <v>163</v>
@@ -7938,10 +7894,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
         <v>163</v>
@@ -7955,10 +7911,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s">
         <v>163</v>
@@ -7972,10 +7928,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
         <v>163</v>
@@ -7989,10 +7945,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
@@ -8006,10 +7962,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -8023,10 +7979,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -8040,10 +7996,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
@@ -8057,10 +8013,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
         <v>163</v>
@@ -8074,10 +8030,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
         <v>163</v>
@@ -8091,10 +8047,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
         <v>163</v>
@@ -8108,10 +8064,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
         <v>163</v>
@@ -8125,10 +8081,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
         <v>163</v>
@@ -8142,10 +8098,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
         <v>163</v>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -5508,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5777,9 +5777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP28" sqref="AP28"/>
+      <selection pane="bottomLeft" activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -61,7 +61,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="440">
   <si>
     <t>name</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>recruitmentTraits</t>
+  </si>
+  <si>
+    <t>CivilianPopulationHousingModule</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1925,7 @@
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="T29" sqref="A29:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5775,11 +5778,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR14" sqref="AR14"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6011,33 +6014,15 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
-      </c>
-      <c r="T5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V5" t="s">
-        <v>303</v>
-      </c>
-      <c r="W5" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>1</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>296</v>
@@ -6063,280 +6048,223 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="T7" t="s">
-        <v>305</v>
-      </c>
-      <c r="U7" t="s">
-        <v>304</v>
-      </c>
-      <c r="V7" t="s">
-        <v>303</v>
-      </c>
-      <c r="W7" t="b">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>1</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>326</v>
+        <v>296</v>
+      </c>
+      <c r="T8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V8" t="s">
+        <v>303</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>327</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>296</v>
       </c>
       <c r="T10" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="U10" t="s">
         <v>304</v>
       </c>
+      <c r="V10" t="s">
+        <v>303</v>
+      </c>
       <c r="W10" t="b">
         <v>1</v>
       </c>
-      <c r="X10" t="s">
-        <v>336</v>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
+        <v>324</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
-      </c>
-      <c r="T12" t="s">
-        <v>305</v>
-      </c>
-      <c r="U12" t="s">
-        <v>304</v>
-      </c>
-      <c r="V12" t="s">
-        <v>303</v>
-      </c>
-      <c r="W12" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12" t="b">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>500</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>354</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>437</v>
+        <v>296</v>
+      </c>
+      <c r="T14" t="s">
+        <v>337</v>
+      </c>
+      <c r="U14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
-      </c>
-      <c r="K15" t="s">
-        <v>369</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL15" t="b">
+        <v>346</v>
+      </c>
+      <c r="AA15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E16" t="s">
-        <v>398</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>24</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="T16" t="s">
+        <v>305</v>
+      </c>
+      <c r="U16" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" t="s">
+        <v>303</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D17" t="s">
-        <v>402</v>
-      </c>
-      <c r="E17" t="s">
-        <v>403</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>24</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>500</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>5</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>404</v>
-      </c>
-      <c r="D18" t="s">
-        <v>405</v>
-      </c>
-      <c r="E18" t="s">
-        <v>406</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>24</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D19" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>24</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="K19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>385</v>
       </c>
@@ -6344,13 +6272,13 @@
         <v>393</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -6359,16 +6287,10 @@
         <v>24</v>
       </c>
       <c r="AO20" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -6376,13 +6298,13 @@
         <v>393</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -6391,10 +6313,10 @@
         <v>24</v>
       </c>
       <c r="AO21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>385</v>
       </c>
@@ -6402,13 +6324,13 @@
         <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -6417,140 +6339,146 @@
         <v>24</v>
       </c>
       <c r="AO22" t="s">
-        <v>423</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G23" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="C23" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>24</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
         <v>393</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D24" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25" t="s">
         <v>393</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s">
         <v>393</v>
       </c>
       <c r="C26" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E26" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" t="s">
-        <v>409</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>420</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>386</v>
       </c>
@@ -6558,13 +6486,13 @@
         <v>393</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -6573,16 +6501,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>421</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -6590,13 +6512,13 @@
         <v>393</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -6605,10 +6527,10 @@
         <v>4</v>
       </c>
       <c r="AO29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>386</v>
       </c>
@@ -6616,13 +6538,13 @@
         <v>393</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D30" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -6631,29 +6553,142 @@
         <v>4</v>
       </c>
       <c r="AO30" t="s">
-        <v>423</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>386</v>
       </c>
       <c r="B31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E31" t="s">
+        <v>409</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>420</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E33" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" t="s">
+        <v>416</v>
+      </c>
+      <c r="D34" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>423</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" t="s">
         <v>171</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
         <v>236</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G35" t="s">
         <v>400</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H35" t="s">
         <v>400</v>
       </c>
     </row>

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleroy/git/CivilianPopulation/parts/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D628E8E-AE2A-2C41-845D-405D8AB1D249}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8900" windowWidth="47400" windowHeight="19580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="620" yWindow="6520" windowWidth="37760" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="MODULE 1.2" sheetId="9" r:id="rId6"/>
     <sheet name="CONVERSION" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>stack, srfAttach, allowStack, allowSrfAttach, allowCollision</t>
         </r>
@@ -56,12 +58,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,6 +71,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> MODULE
  {
@@ -111,12 +114,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -124,6 +127,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> MODULE
  {
@@ -323,6 +327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> custom home modeling</t>
     </r>
@@ -337,6 +342,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>biosphere</t>
     </r>
@@ -345,6 +351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> base.</t>
     </r>
@@ -986,6 +993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Aerospace</t>
     </r>
@@ -1244,6 +1252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t>,Cosmic_Farmer,RabidNinjaWombat</t>
     </r>
@@ -1272,6 +1281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Monaco"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> University</t>
     </r>
@@ -1565,7 +1575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1578,12 +1588,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Monaco"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1606,6 +1618,7 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1653,6 +1666,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1920,12 +1936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T29" sqref="A29:T33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3293,7 +3309,7 @@
         <v>104</v>
       </c>
       <c r="W17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>31</v>
@@ -4274,7 +4290,7 @@
         <v>104</v>
       </c>
       <c r="W29" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>31</v>
@@ -4686,7 +4702,7 @@
         <v>254</v>
       </c>
       <c r="W34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>31</v>
@@ -5026,7 +5042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5433,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5508,11 +5524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5709,10 +5725,10 @@
         <v>109</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5777,10 +5793,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AR35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
@@ -6700,7 +6716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7698,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/parts/src/main/resources/PARTS.xlsx
+++ b/parts/src/main/resources/PARTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleroy/git/CivilianPopulation/parts/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D628E8E-AE2A-2C41-845D-405D8AB1D249}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A263660C-CC4D-2E40-BA41-29C308928E00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="6520" windowWidth="37760" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="6300" windowWidth="47220" windowHeight="19500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART" sheetId="1" r:id="rId1"/>
@@ -125,42 +125,374 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> MODULE
- {
- name = ModuleAnimateGeneric
- animationName = Harvesting
- status = Moving..
- allowManualControl = false
- // startEventGUIName = Start
- // endEventGUIName = Stop
- }
- // MODULE
- // {
- // name = ModuleAnimationGroup
- // activeAnimationName = Harvesters_Move
- // // deployActionName = Activate
- // // retractActionName = Deactivate
- // moduleType = Harvesters
- // }
- // MODULE
- // {
- // name = ModuleAnimateGeneric
- // animationName = Harvesters_Move
- // // allowManualControl = false
- // // startEventGUIName = Inflate Module
- // // endEventGUIName = Deflate Module
- // }
- // MODULE
- // {
- // name = ModuleAnimateGeneric
- // animationName = Arms_Move
- // // startEventGUIName = Inflate Module
- // // endEventGUIName = Deflate Module
- // }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> {
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> name = ModuleAnimateGeneric
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> animationName = Harvesting
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> status = Moving..
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> allowManualControl = false
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // startEventGUIName = Start
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // endEventGUIName = Stop
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // MODULE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // {
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // name = ModuleAnimationGroup
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // activeAnimationName = Harvesters_Move
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // deployActionName = Activate
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // retractActionName = Deactivate
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // moduleType = Harvesters
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // MODULE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // {
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // name = ModuleAnimateGeneric
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // animationName = Harvesters_Move
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // allowManualControl = false
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // startEventGUIName = Inflate Module
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // endEventGUIName = Deflate Module
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // MODULE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // {
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // name = ModuleAnimateGeneric
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // animationName = Arms_Move
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // startEventGUIName = Inflate Module
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // // endEventGUIName = Deflate Module
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> // }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -170,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="439">
   <si>
     <t>name</t>
   </si>
@@ -526,9 +858,6 @@
     <t>1,1,1,1,1</t>
   </si>
   <si>
-    <t>39.5</t>
-  </si>
-  <si>
     <t>.5, .5, .5</t>
   </si>
   <si>
@@ -1576,7 +1905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1617,6 +1946,13 @@
       <b/>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1939,9 +2275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2023,10 +2359,10 @@
         <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -2755,7 +3091,7 @@
         <v>99</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -2778,8 +3114,8 @@
       <c r="V10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>105</v>
+      <c r="W10" s="1">
+        <v>25</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>31</v>
@@ -2811,7 +3147,7 @@
     </row>
     <row r="11" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -2823,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -2847,7 +3183,7 @@
         <v>180000</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>49</v>
@@ -2886,12 +3222,12 @@
         <v>0</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -2903,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="P12" s="1">
         <v>0</v>
@@ -2927,7 +3263,7 @@
         <v>320000</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>49</v>
@@ -2966,12 +3302,12 @@
         <v>0</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -2983,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -3007,7 +3343,7 @@
         <v>210000</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>49</v>
@@ -3046,12 +3382,12 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -3069,13 +3405,13 @@
         <v>2</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="R14" s="1">
         <v>10400</v>
@@ -3084,25 +3420,25 @@
         <v>1000</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="V14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA14" s="1">
         <v>2</v>
@@ -3114,24 +3450,24 @@
         <v>2900</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -3140,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>100</v>
@@ -3155,16 +3491,16 @@
         <v>15000</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="V15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>31</v>
@@ -3185,24 +3521,24 @@
         <v>2000</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -3211,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>100</v>
@@ -3226,13 +3562,13 @@
         <v>8000</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W16" s="1">
         <v>4</v>
@@ -3256,12 +3592,12 @@
         <v>2000</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -3276,22 +3612,22 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P17" s="1">
         <v>4</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R17" s="1">
         <v>100</v>
@@ -3300,10 +3636,10 @@
         <v>100</v>
       </c>
       <c r="T17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>104</v>
@@ -3336,12 +3672,12 @@
         <v>2900</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
@@ -3359,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R18" s="1">
         <v>10400</v>
@@ -3374,25 +3710,25 @@
         <v>1000</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA18" s="1">
         <v>2</v>
@@ -3404,12 +3740,12 @@
         <v>2900</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -3427,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R19" s="1">
         <v>10400</v>
@@ -3442,25 +3778,25 @@
         <v>1000</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA19" s="1">
         <v>2</v>
@@ -3472,18 +3808,18 @@
         <v>2900</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -3495,10 +3831,10 @@
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="R20" s="1">
         <v>2200</v>
@@ -3507,13 +3843,13 @@
         <v>2500</v>
       </c>
       <c r="T20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="W20" s="1">
         <v>4</v>
@@ -3546,18 +3882,18 @@
         <v>0</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -3569,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="R21" s="1">
         <v>2200</v>
@@ -3581,13 +3917,13 @@
         <v>2500</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="W21" s="1">
         <v>3</v>
@@ -3620,12 +3956,12 @@
         <v>0</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
@@ -3643,13 +3979,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>15</v>
@@ -3661,13 +3997,13 @@
         <v>2000</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W22" s="1">
         <v>18</v>
@@ -3697,12 +4033,12 @@
         <v>3000</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -3714,19 +4050,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>15</v>
@@ -3738,13 +4074,13 @@
         <v>2000</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W23" s="1">
         <v>12</v>
@@ -3774,12 +4110,12 @@
         <v>3000</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
@@ -3800,25 +4136,25 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>15</v>
@@ -3830,13 +4166,13 @@
         <v>2000</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W24" s="1">
         <v>7</v>
@@ -3866,12 +4202,12 @@
         <v>3000</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
@@ -3883,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -3892,25 +4228,25 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>15</v>
@@ -3922,13 +4258,13 @@
         <v>2000</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W25" s="1">
         <v>9</v>
@@ -3958,12 +4294,12 @@
         <v>3000</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -3975,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -3984,25 +4320,25 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>15</v>
@@ -4014,13 +4350,13 @@
         <v>2000</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W26" s="1">
         <v>9</v>
@@ -4050,12 +4386,12 @@
         <v>3000</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -4067,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -4076,25 +4412,25 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>15</v>
@@ -4106,13 +4442,13 @@
         <v>2000</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W27" s="1">
         <v>9</v>
@@ -4142,12 +4478,12 @@
         <v>3000</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
@@ -4159,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -4168,25 +4504,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>15</v>
@@ -4198,13 +4534,13 @@
         <v>2000</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W28" s="1">
         <v>4</v>
@@ -4234,12 +4570,12 @@
         <v>3000</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
@@ -4251,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -4260,19 +4596,19 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="P29" s="1">
         <v>8</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R29" s="1">
         <v>10400</v>
@@ -4281,10 +4617,10 @@
         <v>13500</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>104</v>
@@ -4317,12 +4653,12 @@
         <v>2900</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
@@ -4334,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -4343,19 +4679,19 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="N30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P30" s="1">
         <v>25</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R30" s="1">
         <v>10400</v>
@@ -4364,10 +4700,10 @@
         <v>80000</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>104</v>
@@ -4400,12 +4736,12 @@
         <v>2900</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
@@ -4417,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -4426,13 +4762,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="P31" s="1">
         <v>60</v>
@@ -4447,10 +4783,10 @@
         <v>160000</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>104</v>
@@ -4483,12 +4819,12 @@
         <v>2900</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
@@ -4503,19 +4839,19 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="P32" s="1">
         <v>4</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R32" s="1">
         <v>10400</v>
@@ -4524,16 +4860,16 @@
         <v>13500</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>104</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>31</v>
@@ -4560,18 +4896,18 @@
         <v>2900</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -4583,22 +4919,22 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P33" s="1">
         <v>8</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R33" s="1">
         <v>10400</v>
@@ -4607,10 +4943,10 @@
         <v>80000</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>104</v>
@@ -4643,12 +4979,12 @@
         <v>2900</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
@@ -4660,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -4669,22 +5005,22 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="N34" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R34" s="1">
         <v>10400</v>
@@ -4693,13 +5029,13 @@
         <v>13500</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W34" s="1">
         <v>5</v>
@@ -4729,12 +5065,12 @@
         <v>2900</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -4746,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -4755,19 +5091,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="O35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R35" s="1">
         <v>10400</v>
@@ -4776,16 +5112,16 @@
         <v>75000</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W35" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>31</v>
@@ -4812,12 +5148,12 @@
         <v>2900</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
@@ -4829,16 +5165,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="O36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
@@ -4853,16 +5189,16 @@
         <v>180000</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W36" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>31</v>
@@ -4889,12 +5225,12 @@
         <v>2900</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
@@ -4906,22 +5242,22 @@
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="R37" s="1">
         <v>150000</v>
@@ -4930,25 +5266,25 @@
         <v>100000</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA37" s="1">
         <v>2</v>
@@ -4960,12 +5296,12 @@
         <v>2900</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>4</v>
@@ -4977,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>100</v>
@@ -4995,19 +5331,19 @@
         <v>16500</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="W38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X38" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -5031,7 +5367,7 @@
         <v>5000</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5156,37 +5492,37 @@
         <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
@@ -5194,253 +5530,253 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5472,50 +5808,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5528,7 +5864,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5548,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5562,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -5573,10 +5909,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -5587,10 +5923,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>42</v>
@@ -5601,10 +5937,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
         <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -5615,10 +5951,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5629,10 +5965,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5643,10 +5979,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>240000</v>
@@ -5660,10 +5996,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -5674,10 +6010,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5688,10 +6024,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5702,10 +6038,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>100000</v>
@@ -5719,10 +6055,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -5733,10 +6069,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14">
         <v>300</v>
@@ -5747,10 +6083,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>500</v>
@@ -5761,10 +6097,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -5775,10 +6111,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <v>1000</v>
@@ -5798,7 +6134,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5857,200 +6193,200 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
         <v>228</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>229</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" t="s">
-        <v>231</v>
-      </c>
       <c r="R1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
-        <v>239</v>
-      </c>
       <c r="T1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" t="s">
         <v>297</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>298</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>299</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>300</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>301</v>
       </c>
-      <c r="Y1" t="s">
-        <v>302</v>
-      </c>
       <c r="Z1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC1" t="s">
         <v>349</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>350</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>351</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG1" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>353</v>
-      </c>
       <c r="AH1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI1" t="s">
         <v>355</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>356</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>357</v>
-      </c>
       <c r="AK1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN1" t="s">
         <v>394</v>
       </c>
-      <c r="AN1" t="s">
-        <v>395</v>
-      </c>
       <c r="AO1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AP1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W6" t="b">
         <v>1</v>
@@ -6064,27 +6400,27 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W8" t="b">
         <v>1</v>
@@ -6098,27 +6434,27 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W10" t="b">
         <v>1</v>
@@ -6132,60 +6468,60 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W14" t="b">
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -6193,19 +6529,19 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W16" t="b">
         <v>1</v>
@@ -6219,10 +6555,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -6243,38 +6579,38 @@
         <v>5</v>
       </c>
       <c r="AH17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR18" t="s">
         <v>436</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
+        <v>367</v>
+      </c>
+      <c r="K19" t="s">
         <v>368</v>
       </c>
-      <c r="K19" t="s">
-        <v>369</v>
-      </c>
       <c r="AK19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL19" t="b">
         <v>0</v>
@@ -6282,19 +6618,19 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" t="s">
         <v>396</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>397</v>
-      </c>
-      <c r="E20" t="s">
-        <v>398</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -6303,24 +6639,24 @@
         <v>24</v>
       </c>
       <c r="AO20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" t="s">
         <v>401</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>402</v>
-      </c>
-      <c r="E21" t="s">
-        <v>403</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -6329,24 +6665,24 @@
         <v>24</v>
       </c>
       <c r="AO21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s">
+        <v>403</v>
+      </c>
+      <c r="D22" t="s">
         <v>404</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>405</v>
-      </c>
-      <c r="E22" t="s">
-        <v>406</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -6355,24 +6691,24 @@
         <v>24</v>
       </c>
       <c r="AO22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" t="s">
         <v>407</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>408</v>
-      </c>
-      <c r="E23" t="s">
-        <v>409</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -6381,27 +6717,27 @@
         <v>24</v>
       </c>
       <c r="AO23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AP23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" t="s">
         <v>410</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>411</v>
-      </c>
-      <c r="E24" t="s">
-        <v>412</v>
       </c>
       <c r="AM24">
         <v>0</v>
@@ -6410,30 +6746,30 @@
         <v>24</v>
       </c>
       <c r="AO24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" t="s">
         <v>413</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>414</v>
-      </c>
-      <c r="E25" t="s">
-        <v>415</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -6442,24 +6778,24 @@
         <v>24</v>
       </c>
       <c r="AO25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D26" t="s">
         <v>416</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>417</v>
-      </c>
-      <c r="E26" t="s">
-        <v>418</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -6468,47 +6804,47 @@
         <v>24</v>
       </c>
       <c r="AO26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AP26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
+        <v>398</v>
+      </c>
+      <c r="G27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" t="s">
         <v>399</v>
-      </c>
-      <c r="G27" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" t="s">
         <v>396</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>397</v>
-      </c>
-      <c r="E28" t="s">
-        <v>398</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -6517,24 +6853,24 @@
         <v>4</v>
       </c>
       <c r="AO28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="s">
         <v>401</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>402</v>
-      </c>
-      <c r="E29" t="s">
-        <v>403</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -6543,24 +6879,24 @@
         <v>4</v>
       </c>
       <c r="AO29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" t="s">
         <v>404</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>405</v>
-      </c>
-      <c r="E30" t="s">
-        <v>406</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -6569,24 +6905,24 @@
         <v>4</v>
       </c>
       <c r="AO30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" t="s">
         <v>407</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>408</v>
-      </c>
-      <c r="E31" t="s">
-        <v>409</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -6595,27 +6931,27 @@
         <v>4</v>
       </c>
       <c r="AO31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AP31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" t="s">
         <v>410</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>411</v>
-      </c>
-      <c r="E32" t="s">
-        <v>412</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -6624,30 +6960,30 @@
         <v>4</v>
       </c>
       <c r="AO32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" t="s">
         <v>413</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>414</v>
-      </c>
-      <c r="E33" t="s">
-        <v>415</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6656,24 +6992,24 @@
         <v>4</v>
       </c>
       <c r="AO33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" t="s">
         <v>416</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>417</v>
-      </c>
-      <c r="E34" t="s">
-        <v>418</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -6682,30 +7018,30 @@
         <v>4</v>
       </c>
       <c r="AO34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AP34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -6720,7 +7056,7 @@
   <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6737,161 +7073,161 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
         <v>228</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>229</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" t="s">
-        <v>231</v>
-      </c>
       <c r="R1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
-        <v>239</v>
-      </c>
       <c r="T1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" t="s">
         <v>297</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>298</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>299</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>300</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>301</v>
       </c>
-      <c r="Y1" t="s">
-        <v>302</v>
-      </c>
       <c r="Z1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC1" t="s">
         <v>349</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>350</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>351</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG1" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>353</v>
-      </c>
       <c r="AH1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI1" t="s">
         <v>355</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>356</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>357</v>
-      </c>
       <c r="AK1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN1" t="s">
         <v>394</v>
       </c>
-      <c r="AN1" t="s">
-        <v>395</v>
-      </c>
       <c r="AO1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AP1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AQ1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
         <v>173</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -6899,36 +7235,36 @@
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -6936,38 +7272,38 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -6984,19 +7320,19 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>224</v>
+      </c>
+      <c r="M9" t="s">
         <v>236</v>
-      </c>
-      <c r="L9" t="s">
-        <v>225</v>
-      </c>
-      <c r="M9" t="s">
-        <v>237</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -7014,35 +7350,35 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W11" t="b">
         <v>1</v>
@@ -7056,30 +7392,30 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W13" t="b">
         <v>1</v>
@@ -7093,30 +7429,30 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W15" t="b">
         <v>1</v>
@@ -7130,63 +7466,63 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W19" t="b">
         <v>1</v>
       </c>
       <c r="X19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -7194,19 +7530,19 @@
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W21" t="b">
         <v>1</v>
@@ -7220,10 +7556,10 @@
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB22">
         <v>1</v>
@@ -7244,35 +7580,35 @@
         <v>5</v>
       </c>
       <c r="AH22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AJ22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B24" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" t="s">
         <v>368</v>
       </c>
-      <c r="K24" t="s">
-        <v>369</v>
-      </c>
       <c r="AK24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL24" t="b">
         <v>0</v>
@@ -7280,19 +7616,19 @@
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" t="s">
         <v>396</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>397</v>
-      </c>
-      <c r="E25" t="s">
-        <v>398</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -7301,24 +7637,24 @@
         <v>24</v>
       </c>
       <c r="AO25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" t="s">
         <v>401</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>402</v>
-      </c>
-      <c r="E26" t="s">
-        <v>403</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -7327,24 +7663,24 @@
         <v>24</v>
       </c>
       <c r="AO26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D27" t="s">
         <v>404</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>405</v>
-      </c>
-      <c r="E27" t="s">
-        <v>406</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -7353,24 +7689,24 @@
         <v>24</v>
       </c>
       <c r="AO27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" t="s">
         <v>407</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>408</v>
-      </c>
-      <c r="E28" t="s">
-        <v>409</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -7379,27 +7715,27 @@
         <v>24</v>
       </c>
       <c r="AO28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AP28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" t="s">
         <v>410</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>411</v>
-      </c>
-      <c r="E29" t="s">
-        <v>412</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -7408,30 +7744,30 @@
         <v>24</v>
       </c>
       <c r="AO29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" t="s">
         <v>413</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>414</v>
-      </c>
-      <c r="E30" t="s">
-        <v>415</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -7440,24 +7776,24 @@
         <v>24</v>
       </c>
       <c r="AO30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" t="s">
         <v>416</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>417</v>
-      </c>
-      <c r="E31" t="s">
-        <v>418</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -7466,47 +7802,47 @@
         <v>24</v>
       </c>
       <c r="AO31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AP31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" t="s">
         <v>399</v>
-      </c>
-      <c r="G32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D33" t="s">
         <v>396</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>397</v>
-      </c>
-      <c r="E33" t="s">
-        <v>398</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -7515,24 +7851,24 @@
         <v>4</v>
       </c>
       <c r="AO33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" t="s">
         <v>401</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>402</v>
-      </c>
-      <c r="E34" t="s">
-        <v>403</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -7541,24 +7877,24 @@
         <v>4</v>
       </c>
       <c r="AO34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" t="s">
         <v>404</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>405</v>
-      </c>
-      <c r="E35" t="s">
-        <v>406</v>
       </c>
       <c r="AM35">
         <v>0</v>
@@ -7567,24 +7903,24 @@
         <v>4</v>
       </c>
       <c r="AO35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" t="s">
         <v>407</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>408</v>
-      </c>
-      <c r="E36" t="s">
-        <v>409</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -7593,27 +7929,27 @@
         <v>4</v>
       </c>
       <c r="AO36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AP36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" t="s">
         <v>410</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>411</v>
-      </c>
-      <c r="E37" t="s">
-        <v>412</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7622,30 +7958,30 @@
         <v>4</v>
       </c>
       <c r="AO37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AP37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" t="s">
         <v>413</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>414</v>
-      </c>
-      <c r="E38" t="s">
-        <v>415</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -7654,24 +7990,24 @@
         <v>4</v>
       </c>
       <c r="AO38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C39" t="s">
+        <v>415</v>
+      </c>
+      <c r="D39" t="s">
         <v>416</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>417</v>
-      </c>
-      <c r="E39" t="s">
-        <v>418</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -7680,30 +8016,30 @@
         <v>4</v>
       </c>
       <c r="AO39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AP39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AQ39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -7718,7 +8054,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7734,59 +8070,59 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
         <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -7794,19 +8130,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -7814,16 +8150,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>4000</v>
@@ -7834,36 +8170,36 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
         <v>167</v>
-      </c>
-      <c r="D7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>168</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -7871,19 +8207,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -7891,16 +8227,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>1500</v>
@@ -7911,16 +8247,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -7928,16 +8264,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>144</v>
@@ -7945,16 +8281,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>144</v>
@@ -7962,16 +8298,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>144</v>
@@ -7979,16 +8315,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>144</v>
@@ -7996,16 +8332,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>144</v>
@@ -8013,16 +8349,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>144</v>
@@ -8030,16 +8366,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>144</v>
@@ -8047,16 +8383,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>24</v>
@@ -8064,16 +8400,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>24</v>
@@ -8081,16 +8417,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>24</v>
@@ -8098,16 +8434,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -8115,16 +8451,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -8132,16 +8468,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23">
         <v>24</v>
@@ -8149,16 +8485,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <v>24</v>
